--- a/ccbhc_measurements/dashboard/excel files/ASC_sub_1.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/ASC_sub_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D523"/>
+  <dimension ref="A1:E523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>numerator</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>medicaid</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,6 +479,9 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -494,6 +502,11 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -514,6 +527,9 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -534,6 +550,9 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +573,9 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -574,6 +596,11 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -594,6 +621,9 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -614,6 +644,11 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -634,6 +669,9 @@
       <c r="D10" t="b">
         <v>0</v>
       </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -654,6 +692,11 @@
       <c r="D11" t="b">
         <v>1</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -674,6 +717,9 @@
       <c r="D12" t="b">
         <v>0</v>
       </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -694,6 +740,11 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -714,6 +765,9 @@
       <c r="D14" t="b">
         <v>1</v>
       </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -734,6 +788,9 @@
       <c r="D15" t="b">
         <v>1</v>
       </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -754,6 +811,9 @@
       <c r="D16" t="b">
         <v>0</v>
       </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -774,6 +834,9 @@
       <c r="D17" t="b">
         <v>0</v>
       </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -794,6 +857,11 @@
       <c r="D18" t="b">
         <v>1</v>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -814,6 +882,11 @@
       <c r="D19" t="b">
         <v>0</v>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -834,6 +907,11 @@
       <c r="D20" t="b">
         <v>0</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -854,6 +932,11 @@
       <c r="D21" t="b">
         <v>1</v>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -874,6 +957,9 @@
       <c r="D22" t="b">
         <v>1</v>
       </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -894,6 +980,9 @@
       <c r="D23" t="b">
         <v>1</v>
       </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -914,6 +1003,11 @@
       <c r="D24" t="b">
         <v>0</v>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -934,6 +1028,11 @@
       <c r="D25" t="b">
         <v>0</v>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -954,6 +1053,9 @@
       <c r="D26" t="b">
         <v>0</v>
       </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -974,6 +1076,9 @@
       <c r="D27" t="b">
         <v>1</v>
       </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -994,6 +1099,11 @@
       <c r="D28" t="b">
         <v>0</v>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1014,6 +1124,11 @@
       <c r="D29" t="b">
         <v>0</v>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1034,6 +1149,11 @@
       <c r="D30" t="b">
         <v>1</v>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1054,6 +1174,11 @@
       <c r="D31" t="b">
         <v>0</v>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1074,6 +1199,9 @@
       <c r="D32" t="b">
         <v>0</v>
       </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1094,6 +1222,9 @@
       <c r="D33" t="b">
         <v>1</v>
       </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1114,6 +1245,11 @@
       <c r="D34" t="b">
         <v>1</v>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1134,6 +1270,9 @@
       <c r="D35" t="b">
         <v>0</v>
       </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1154,6 +1293,9 @@
       <c r="D36" t="b">
         <v>0</v>
       </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1174,6 +1316,11 @@
       <c r="D37" t="b">
         <v>1</v>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1194,6 +1341,9 @@
       <c r="D38" t="b">
         <v>1</v>
       </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1214,6 +1364,9 @@
       <c r="D39" t="b">
         <v>0</v>
       </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1234,6 +1387,9 @@
       <c r="D40" t="b">
         <v>0</v>
       </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1254,6 +1410,9 @@
       <c r="D41" t="b">
         <v>0</v>
       </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1274,6 +1433,11 @@
       <c r="D42" t="b">
         <v>0</v>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1294,6 +1458,9 @@
       <c r="D43" t="b">
         <v>1</v>
       </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1314,6 +1481,11 @@
       <c r="D44" t="b">
         <v>0</v>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1334,6 +1506,11 @@
       <c r="D45" t="b">
         <v>0</v>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1354,6 +1531,9 @@
       <c r="D46" t="b">
         <v>1</v>
       </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1374,6 +1554,9 @@
       <c r="D47" t="b">
         <v>0</v>
       </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1394,6 +1577,9 @@
       <c r="D48" t="b">
         <v>0</v>
       </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1414,6 +1600,11 @@
       <c r="D49" t="b">
         <v>0</v>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1434,6 +1625,11 @@
       <c r="D50" t="b">
         <v>0</v>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1454,6 +1650,11 @@
       <c r="D51" t="b">
         <v>0</v>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1474,6 +1675,11 @@
       <c r="D52" t="b">
         <v>0</v>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1494,6 +1700,9 @@
       <c r="D53" t="b">
         <v>0</v>
       </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1514,6 +1723,11 @@
       <c r="D54" t="b">
         <v>0</v>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1534,6 +1748,11 @@
       <c r="D55" t="b">
         <v>1</v>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1554,6 +1773,9 @@
       <c r="D56" t="b">
         <v>0</v>
       </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1574,6 +1796,11 @@
       <c r="D57" t="b">
         <v>0</v>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1594,6 +1821,11 @@
       <c r="D58" t="b">
         <v>0</v>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1614,6 +1846,11 @@
       <c r="D59" t="b">
         <v>1</v>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1634,6 +1871,11 @@
       <c r="D60" t="b">
         <v>0</v>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1654,6 +1896,9 @@
       <c r="D61" t="b">
         <v>1</v>
       </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1674,6 +1919,11 @@
       <c r="D62" t="b">
         <v>0</v>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1694,6 +1944,11 @@
       <c r="D63" t="b">
         <v>0</v>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1714,6 +1969,11 @@
       <c r="D64" t="b">
         <v>0</v>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1734,6 +1994,9 @@
       <c r="D65" t="b">
         <v>0</v>
       </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1754,6 +2017,11 @@
       <c r="D66" t="b">
         <v>0</v>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1774,6 +2042,9 @@
       <c r="D67" t="b">
         <v>0</v>
       </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1794,6 +2065,9 @@
       <c r="D68" t="b">
         <v>0</v>
       </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1814,6 +2088,11 @@
       <c r="D69" t="b">
         <v>0</v>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1834,6 +2113,9 @@
       <c r="D70" t="b">
         <v>0</v>
       </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1854,6 +2136,9 @@
       <c r="D71" t="b">
         <v>0</v>
       </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1874,6 +2159,11 @@
       <c r="D72" t="b">
         <v>1</v>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1894,6 +2184,9 @@
       <c r="D73" t="b">
         <v>0</v>
       </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1914,6 +2207,11 @@
       <c r="D74" t="b">
         <v>0</v>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1934,6 +2232,11 @@
       <c r="D75" t="b">
         <v>0</v>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1954,6 +2257,11 @@
       <c r="D76" t="b">
         <v>0</v>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1974,6 +2282,11 @@
       <c r="D77" t="b">
         <v>0</v>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1994,6 +2307,9 @@
       <c r="D78" t="b">
         <v>0</v>
       </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2014,6 +2330,9 @@
       <c r="D79" t="b">
         <v>1</v>
       </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2034,6 +2353,11 @@
       <c r="D80" t="b">
         <v>0</v>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2054,6 +2378,11 @@
       <c r="D81" t="b">
         <v>1</v>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2074,6 +2403,11 @@
       <c r="D82" t="b">
         <v>1</v>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2094,6 +2428,11 @@
       <c r="D83" t="b">
         <v>0</v>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2114,6 +2453,11 @@
       <c r="D84" t="b">
         <v>0</v>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2134,6 +2478,9 @@
       <c r="D85" t="b">
         <v>0</v>
       </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2154,6 +2501,9 @@
       <c r="D86" t="b">
         <v>1</v>
       </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2174,6 +2524,11 @@
       <c r="D87" t="b">
         <v>1</v>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2194,6 +2549,9 @@
       <c r="D88" t="b">
         <v>0</v>
       </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2214,6 +2572,11 @@
       <c r="D89" t="b">
         <v>1</v>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2234,6 +2597,11 @@
       <c r="D90" t="b">
         <v>1</v>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2254,6 +2622,11 @@
       <c r="D91" t="b">
         <v>0</v>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2274,6 +2647,11 @@
       <c r="D92" t="b">
         <v>0</v>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2294,6 +2672,9 @@
       <c r="D93" t="b">
         <v>1</v>
       </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2314,6 +2695,9 @@
       <c r="D94" t="b">
         <v>1</v>
       </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2334,6 +2718,9 @@
       <c r="D95" t="b">
         <v>0</v>
       </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2354,6 +2741,11 @@
       <c r="D96" t="b">
         <v>0</v>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2374,6 +2766,11 @@
       <c r="D97" t="b">
         <v>0</v>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2394,6 +2791,11 @@
       <c r="D98" t="b">
         <v>0</v>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2414,6 +2816,11 @@
       <c r="D99" t="b">
         <v>1</v>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2434,6 +2841,9 @@
       <c r="D100" t="b">
         <v>0</v>
       </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2454,6 +2864,9 @@
       <c r="D101" t="b">
         <v>1</v>
       </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2474,6 +2887,11 @@
       <c r="D102" t="b">
         <v>0</v>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2494,6 +2912,9 @@
       <c r="D103" t="b">
         <v>0</v>
       </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2514,6 +2935,9 @@
       <c r="D104" t="b">
         <v>0</v>
       </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2534,6 +2958,9 @@
       <c r="D105" t="b">
         <v>1</v>
       </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2554,6 +2981,11 @@
       <c r="D106" t="b">
         <v>1</v>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2574,6 +3006,9 @@
       <c r="D107" t="b">
         <v>0</v>
       </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2594,6 +3029,9 @@
       <c r="D108" t="b">
         <v>0</v>
       </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2614,6 +3052,11 @@
       <c r="D109" t="b">
         <v>0</v>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2634,6 +3077,9 @@
       <c r="D110" t="b">
         <v>0</v>
       </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2654,6 +3100,11 @@
       <c r="D111" t="b">
         <v>0</v>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2674,6 +3125,11 @@
       <c r="D112" t="b">
         <v>1</v>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2694,6 +3150,11 @@
       <c r="D113" t="b">
         <v>0</v>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2714,6 +3175,9 @@
       <c r="D114" t="b">
         <v>1</v>
       </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2734,6 +3198,9 @@
       <c r="D115" t="b">
         <v>1</v>
       </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2754,6 +3221,11 @@
       <c r="D116" t="b">
         <v>0</v>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2774,6 +3246,11 @@
       <c r="D117" t="b">
         <v>0</v>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2794,6 +3271,11 @@
       <c r="D118" t="b">
         <v>0</v>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2814,6 +3296,9 @@
       <c r="D119" t="b">
         <v>0</v>
       </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2834,6 +3319,11 @@
       <c r="D120" t="b">
         <v>0</v>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2854,6 +3344,11 @@
       <c r="D121" t="b">
         <v>1</v>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2874,6 +3369,11 @@
       <c r="D122" t="b">
         <v>0</v>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2894,6 +3394,9 @@
       <c r="D123" t="b">
         <v>0</v>
       </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2914,6 +3417,11 @@
       <c r="D124" t="b">
         <v>0</v>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2934,6 +3442,9 @@
       <c r="D125" t="b">
         <v>0</v>
       </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2954,6 +3465,9 @@
       <c r="D126" t="b">
         <v>1</v>
       </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2974,6 +3488,11 @@
       <c r="D127" t="b">
         <v>0</v>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2994,6 +3513,9 @@
       <c r="D128" t="b">
         <v>0</v>
       </c>
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3014,6 +3536,9 @@
       <c r="D129" t="b">
         <v>0</v>
       </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3034,6 +3559,9 @@
       <c r="D130" t="b">
         <v>1</v>
       </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3054,6 +3582,9 @@
       <c r="D131" t="b">
         <v>0</v>
       </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3074,6 +3605,9 @@
       <c r="D132" t="b">
         <v>1</v>
       </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3094,6 +3628,9 @@
       <c r="D133" t="b">
         <v>0</v>
       </c>
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3114,6 +3651,9 @@
       <c r="D134" t="b">
         <v>0</v>
       </c>
+      <c r="E134" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3134,6 +3674,9 @@
       <c r="D135" t="b">
         <v>1</v>
       </c>
+      <c r="E135" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3154,6 +3697,9 @@
       <c r="D136" t="b">
         <v>0</v>
       </c>
+      <c r="E136" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3174,6 +3720,9 @@
       <c r="D137" t="b">
         <v>0</v>
       </c>
+      <c r="E137" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3194,6 +3743,9 @@
       <c r="D138" t="b">
         <v>0</v>
       </c>
+      <c r="E138" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3214,6 +3766,11 @@
       <c r="D139" t="b">
         <v>0</v>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3234,6 +3791,11 @@
       <c r="D140" t="b">
         <v>1</v>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3254,6 +3816,9 @@
       <c r="D141" t="b">
         <v>1</v>
       </c>
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3274,6 +3839,11 @@
       <c r="D142" t="b">
         <v>0</v>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3294,6 +3864,9 @@
       <c r="D143" t="b">
         <v>0</v>
       </c>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3314,6 +3887,9 @@
       <c r="D144" t="b">
         <v>0</v>
       </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3334,6 +3910,11 @@
       <c r="D145" t="b">
         <v>1</v>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3354,6 +3935,9 @@
       <c r="D146" t="b">
         <v>1</v>
       </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3374,6 +3958,11 @@
       <c r="D147" t="b">
         <v>0</v>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3394,6 +3983,11 @@
       <c r="D148" t="b">
         <v>1</v>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3414,6 +4008,11 @@
       <c r="D149" t="b">
         <v>1</v>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3434,6 +4033,9 @@
       <c r="D150" t="b">
         <v>0</v>
       </c>
+      <c r="E150" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3454,6 +4056,11 @@
       <c r="D151" t="b">
         <v>0</v>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3474,6 +4081,11 @@
       <c r="D152" t="b">
         <v>0</v>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3494,6 +4106,9 @@
       <c r="D153" t="b">
         <v>1</v>
       </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3514,6 +4129,9 @@
       <c r="D154" t="b">
         <v>0</v>
       </c>
+      <c r="E154" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3534,6 +4152,11 @@
       <c r="D155" t="b">
         <v>0</v>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3554,6 +4177,9 @@
       <c r="D156" t="b">
         <v>1</v>
       </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3574,6 +4200,9 @@
       <c r="D157" t="b">
         <v>0</v>
       </c>
+      <c r="E157" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3594,6 +4223,11 @@
       <c r="D158" t="b">
         <v>0</v>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3614,6 +4248,11 @@
       <c r="D159" t="b">
         <v>1</v>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3634,6 +4273,11 @@
       <c r="D160" t="b">
         <v>1</v>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3654,6 +4298,9 @@
       <c r="D161" t="b">
         <v>1</v>
       </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3674,6 +4321,11 @@
       <c r="D162" t="b">
         <v>1</v>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3694,6 +4346,11 @@
       <c r="D163" t="b">
         <v>0</v>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3714,6 +4371,11 @@
       <c r="D164" t="b">
         <v>1</v>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3734,6 +4396,9 @@
       <c r="D165" t="b">
         <v>1</v>
       </c>
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3754,6 +4419,9 @@
       <c r="D166" t="b">
         <v>1</v>
       </c>
+      <c r="E166" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3774,6 +4442,9 @@
       <c r="D167" t="b">
         <v>0</v>
       </c>
+      <c r="E167" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3794,6 +4465,11 @@
       <c r="D168" t="b">
         <v>0</v>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3814,6 +4490,9 @@
       <c r="D169" t="b">
         <v>0</v>
       </c>
+      <c r="E169" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3834,6 +4513,11 @@
       <c r="D170" t="b">
         <v>0</v>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3854,6 +4538,11 @@
       <c r="D171" t="b">
         <v>1</v>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3874,6 +4563,9 @@
       <c r="D172" t="b">
         <v>0</v>
       </c>
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3894,6 +4586,11 @@
       <c r="D173" t="b">
         <v>0</v>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3914,6 +4611,9 @@
       <c r="D174" t="b">
         <v>0</v>
       </c>
+      <c r="E174" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3934,6 +4634,11 @@
       <c r="D175" t="b">
         <v>0</v>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3954,6 +4659,11 @@
       <c r="D176" t="b">
         <v>0</v>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3974,6 +4684,11 @@
       <c r="D177" t="b">
         <v>1</v>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3994,6 +4709,11 @@
       <c r="D178" t="b">
         <v>0</v>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4014,6 +4734,11 @@
       <c r="D179" t="b">
         <v>0</v>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4034,6 +4759,11 @@
       <c r="D180" t="b">
         <v>1</v>
       </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4054,6 +4784,11 @@
       <c r="D181" t="b">
         <v>1</v>
       </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4074,6 +4809,11 @@
       <c r="D182" t="b">
         <v>1</v>
       </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4094,6 +4834,11 @@
       <c r="D183" t="b">
         <v>0</v>
       </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4114,6 +4859,11 @@
       <c r="D184" t="b">
         <v>0</v>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4134,6 +4884,11 @@
       <c r="D185" t="b">
         <v>0</v>
       </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4154,6 +4909,9 @@
       <c r="D186" t="b">
         <v>0</v>
       </c>
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4174,6 +4932,9 @@
       <c r="D187" t="b">
         <v>0</v>
       </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4194,6 +4955,11 @@
       <c r="D188" t="b">
         <v>0</v>
       </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4214,6 +4980,11 @@
       <c r="D189" t="b">
         <v>0</v>
       </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4234,6 +5005,11 @@
       <c r="D190" t="b">
         <v>0</v>
       </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4254,6 +5030,11 @@
       <c r="D191" t="b">
         <v>0</v>
       </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4274,6 +5055,9 @@
       <c r="D192" t="b">
         <v>1</v>
       </c>
+      <c r="E192" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4294,6 +5078,9 @@
       <c r="D193" t="b">
         <v>0</v>
       </c>
+      <c r="E193" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4314,6 +5101,11 @@
       <c r="D194" t="b">
         <v>0</v>
       </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4334,6 +5126,9 @@
       <c r="D195" t="b">
         <v>1</v>
       </c>
+      <c r="E195" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4354,6 +5149,9 @@
       <c r="D196" t="b">
         <v>0</v>
       </c>
+      <c r="E196" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4374,6 +5172,9 @@
       <c r="D197" t="b">
         <v>0</v>
       </c>
+      <c r="E197" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4394,6 +5195,11 @@
       <c r="D198" t="b">
         <v>1</v>
       </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4414,6 +5220,9 @@
       <c r="D199" t="b">
         <v>0</v>
       </c>
+      <c r="E199" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4434,6 +5243,9 @@
       <c r="D200" t="b">
         <v>0</v>
       </c>
+      <c r="E200" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4454,6 +5266,9 @@
       <c r="D201" t="b">
         <v>0</v>
       </c>
+      <c r="E201" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4474,6 +5289,9 @@
       <c r="D202" t="b">
         <v>1</v>
       </c>
+      <c r="E202" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4494,6 +5312,9 @@
       <c r="D203" t="b">
         <v>0</v>
       </c>
+      <c r="E203" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4514,6 +5335,11 @@
       <c r="D204" t="b">
         <v>0</v>
       </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4534,6 +5360,9 @@
       <c r="D205" t="b">
         <v>0</v>
       </c>
+      <c r="E205" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4554,6 +5383,9 @@
       <c r="D206" t="b">
         <v>0</v>
       </c>
+      <c r="E206" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4574,6 +5406,9 @@
       <c r="D207" t="b">
         <v>1</v>
       </c>
+      <c r="E207" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4594,6 +5429,11 @@
       <c r="D208" t="b">
         <v>1</v>
       </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -4614,6 +5454,9 @@
       <c r="D209" t="b">
         <v>0</v>
       </c>
+      <c r="E209" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -4634,6 +5477,11 @@
       <c r="D210" t="b">
         <v>0</v>
       </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -4654,6 +5502,11 @@
       <c r="D211" t="b">
         <v>0</v>
       </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -4674,6 +5527,11 @@
       <c r="D212" t="b">
         <v>0</v>
       </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -4694,6 +5552,9 @@
       <c r="D213" t="b">
         <v>1</v>
       </c>
+      <c r="E213" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4714,6 +5575,9 @@
       <c r="D214" t="b">
         <v>0</v>
       </c>
+      <c r="E214" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -4734,6 +5598,9 @@
       <c r="D215" t="b">
         <v>0</v>
       </c>
+      <c r="E215" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -4754,6 +5621,9 @@
       <c r="D216" t="b">
         <v>1</v>
       </c>
+      <c r="E216" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -4774,6 +5644,9 @@
       <c r="D217" t="b">
         <v>1</v>
       </c>
+      <c r="E217" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -4794,6 +5667,9 @@
       <c r="D218" t="b">
         <v>0</v>
       </c>
+      <c r="E218" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -4814,6 +5690,9 @@
       <c r="D219" t="b">
         <v>0</v>
       </c>
+      <c r="E219" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -4834,6 +5713,11 @@
       <c r="D220" t="b">
         <v>0</v>
       </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -4854,6 +5738,11 @@
       <c r="D221" t="b">
         <v>1</v>
       </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -4874,6 +5763,9 @@
       <c r="D222" t="b">
         <v>0</v>
       </c>
+      <c r="E222" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -4894,6 +5786,9 @@
       <c r="D223" t="b">
         <v>0</v>
       </c>
+      <c r="E223" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -4914,6 +5809,11 @@
       <c r="D224" t="b">
         <v>1</v>
       </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -4934,6 +5834,11 @@
       <c r="D225" t="b">
         <v>0</v>
       </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -4954,6 +5859,9 @@
       <c r="D226" t="b">
         <v>0</v>
       </c>
+      <c r="E226" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -4974,6 +5882,9 @@
       <c r="D227" t="b">
         <v>1</v>
       </c>
+      <c r="E227" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -4994,6 +5905,11 @@
       <c r="D228" t="b">
         <v>0</v>
       </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5014,6 +5930,11 @@
       <c r="D229" t="b">
         <v>1</v>
       </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5034,6 +5955,11 @@
       <c r="D230" t="b">
         <v>0</v>
       </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5054,6 +5980,9 @@
       <c r="D231" t="b">
         <v>0</v>
       </c>
+      <c r="E231" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5074,6 +6003,9 @@
       <c r="D232" t="b">
         <v>0</v>
       </c>
+      <c r="E232" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5094,6 +6026,9 @@
       <c r="D233" t="b">
         <v>0</v>
       </c>
+      <c r="E233" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5114,6 +6049,9 @@
       <c r="D234" t="b">
         <v>1</v>
       </c>
+      <c r="E234" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5134,6 +6072,9 @@
       <c r="D235" t="b">
         <v>0</v>
       </c>
+      <c r="E235" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5154,6 +6095,11 @@
       <c r="D236" t="b">
         <v>0</v>
       </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5174,6 +6120,11 @@
       <c r="D237" t="b">
         <v>0</v>
       </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5194,6 +6145,9 @@
       <c r="D238" t="b">
         <v>0</v>
       </c>
+      <c r="E238" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5214,6 +6168,9 @@
       <c r="D239" t="b">
         <v>0</v>
       </c>
+      <c r="E239" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5234,6 +6191,11 @@
       <c r="D240" t="b">
         <v>0</v>
       </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5254,6 +6216,9 @@
       <c r="D241" t="b">
         <v>1</v>
       </c>
+      <c r="E241" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5274,6 +6239,11 @@
       <c r="D242" t="b">
         <v>0</v>
       </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5294,6 +6264,9 @@
       <c r="D243" t="b">
         <v>0</v>
       </c>
+      <c r="E243" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5314,6 +6287,11 @@
       <c r="D244" t="b">
         <v>1</v>
       </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5334,6 +6312,9 @@
       <c r="D245" t="b">
         <v>1</v>
       </c>
+      <c r="E245" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5354,6 +6335,9 @@
       <c r="D246" t="b">
         <v>0</v>
       </c>
+      <c r="E246" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5374,6 +6358,11 @@
       <c r="D247" t="b">
         <v>0</v>
       </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5394,6 +6383,9 @@
       <c r="D248" t="b">
         <v>1</v>
       </c>
+      <c r="E248" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5414,6 +6406,9 @@
       <c r="D249" t="b">
         <v>1</v>
       </c>
+      <c r="E249" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5434,6 +6429,11 @@
       <c r="D250" t="b">
         <v>0</v>
       </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5454,6 +6454,11 @@
       <c r="D251" t="b">
         <v>0</v>
       </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -5474,6 +6479,11 @@
       <c r="D252" t="b">
         <v>0</v>
       </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -5494,6 +6504,9 @@
       <c r="D253" t="b">
         <v>1</v>
       </c>
+      <c r="E253" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -5514,6 +6527,11 @@
       <c r="D254" t="b">
         <v>0</v>
       </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -5534,6 +6552,11 @@
       <c r="D255" t="b">
         <v>0</v>
       </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -5554,6 +6577,11 @@
       <c r="D256" t="b">
         <v>0</v>
       </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -5574,6 +6602,11 @@
       <c r="D257" t="b">
         <v>0</v>
       </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -5594,6 +6627,9 @@
       <c r="D258" t="b">
         <v>0</v>
       </c>
+      <c r="E258" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -5614,6 +6650,11 @@
       <c r="D259" t="b">
         <v>0</v>
       </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -5634,6 +6675,11 @@
       <c r="D260" t="b">
         <v>0</v>
       </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -5654,6 +6700,11 @@
       <c r="D261" t="b">
         <v>0</v>
       </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -5674,6 +6725,9 @@
       <c r="D262" t="b">
         <v>0</v>
       </c>
+      <c r="E262" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -5694,6 +6748,9 @@
       <c r="D263" t="b">
         <v>0</v>
       </c>
+      <c r="E263" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -5714,6 +6771,11 @@
       <c r="D264" t="b">
         <v>0</v>
       </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -5734,6 +6796,9 @@
       <c r="D265" t="b">
         <v>1</v>
       </c>
+      <c r="E265" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -5754,6 +6819,9 @@
       <c r="D266" t="b">
         <v>0</v>
       </c>
+      <c r="E266" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -5774,6 +6842,9 @@
       <c r="D267" t="b">
         <v>0</v>
       </c>
+      <c r="E267" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -5794,6 +6865,9 @@
       <c r="D268" t="b">
         <v>1</v>
       </c>
+      <c r="E268" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -5814,6 +6888,9 @@
       <c r="D269" t="b">
         <v>0</v>
       </c>
+      <c r="E269" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -5834,6 +6911,9 @@
       <c r="D270" t="b">
         <v>0</v>
       </c>
+      <c r="E270" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -5854,6 +6934,11 @@
       <c r="D271" t="b">
         <v>1</v>
       </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -5874,6 +6959,9 @@
       <c r="D272" t="b">
         <v>1</v>
       </c>
+      <c r="E272" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -5894,6 +6982,11 @@
       <c r="D273" t="b">
         <v>0</v>
       </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -5914,6 +7007,11 @@
       <c r="D274" t="b">
         <v>1</v>
       </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -5934,6 +7032,9 @@
       <c r="D275" t="b">
         <v>1</v>
       </c>
+      <c r="E275" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -5954,6 +7055,11 @@
       <c r="D276" t="b">
         <v>1</v>
       </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -5974,6 +7080,9 @@
       <c r="D277" t="b">
         <v>0</v>
       </c>
+      <c r="E277" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -5994,6 +7103,11 @@
       <c r="D278" t="b">
         <v>1</v>
       </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -6014,6 +7128,11 @@
       <c r="D279" t="b">
         <v>1</v>
       </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -6034,6 +7153,9 @@
       <c r="D280" t="b">
         <v>1</v>
       </c>
+      <c r="E280" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -6054,6 +7176,9 @@
       <c r="D281" t="b">
         <v>0</v>
       </c>
+      <c r="E281" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -6074,6 +7199,11 @@
       <c r="D282" t="b">
         <v>0</v>
       </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -6094,6 +7224,11 @@
       <c r="D283" t="b">
         <v>0</v>
       </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -6114,6 +7249,11 @@
       <c r="D284" t="b">
         <v>0</v>
       </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -6134,6 +7274,11 @@
       <c r="D285" t="b">
         <v>0</v>
       </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -6154,6 +7299,9 @@
       <c r="D286" t="b">
         <v>0</v>
       </c>
+      <c r="E286" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -6174,6 +7322,9 @@
       <c r="D287" t="b">
         <v>0</v>
       </c>
+      <c r="E287" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -6194,6 +7345,9 @@
       <c r="D288" t="b">
         <v>0</v>
       </c>
+      <c r="E288" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -6214,6 +7368,11 @@
       <c r="D289" t="b">
         <v>1</v>
       </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -6234,6 +7393,9 @@
       <c r="D290" t="b">
         <v>0</v>
       </c>
+      <c r="E290" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -6254,6 +7416,9 @@
       <c r="D291" t="b">
         <v>1</v>
       </c>
+      <c r="E291" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -6274,6 +7439,11 @@
       <c r="D292" t="b">
         <v>1</v>
       </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -6294,6 +7464,9 @@
       <c r="D293" t="b">
         <v>0</v>
       </c>
+      <c r="E293" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -6314,6 +7487,9 @@
       <c r="D294" t="b">
         <v>0</v>
       </c>
+      <c r="E294" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6334,6 +7510,9 @@
       <c r="D295" t="b">
         <v>1</v>
       </c>
+      <c r="E295" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6354,6 +7533,9 @@
       <c r="D296" t="b">
         <v>0</v>
       </c>
+      <c r="E296" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -6374,6 +7556,9 @@
       <c r="D297" t="b">
         <v>0</v>
       </c>
+      <c r="E297" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -6394,6 +7579,11 @@
       <c r="D298" t="b">
         <v>1</v>
       </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -6414,6 +7604,9 @@
       <c r="D299" t="b">
         <v>1</v>
       </c>
+      <c r="E299" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -6434,6 +7627,11 @@
       <c r="D300" t="b">
         <v>0</v>
       </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -6454,6 +7652,11 @@
       <c r="D301" t="b">
         <v>0</v>
       </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -6474,6 +7677,9 @@
       <c r="D302" t="b">
         <v>0</v>
       </c>
+      <c r="E302" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -6494,6 +7700,11 @@
       <c r="D303" t="b">
         <v>0</v>
       </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -6514,6 +7725,9 @@
       <c r="D304" t="b">
         <v>0</v>
       </c>
+      <c r="E304" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -6534,6 +7748,9 @@
       <c r="D305" t="b">
         <v>0</v>
       </c>
+      <c r="E305" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -6554,6 +7771,9 @@
       <c r="D306" t="b">
         <v>1</v>
       </c>
+      <c r="E306" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -6574,6 +7794,9 @@
       <c r="D307" t="b">
         <v>0</v>
       </c>
+      <c r="E307" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -6594,6 +7817,11 @@
       <c r="D308" t="b">
         <v>0</v>
       </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -6614,6 +7842,11 @@
       <c r="D309" t="b">
         <v>0</v>
       </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -6634,6 +7867,11 @@
       <c r="D310" t="b">
         <v>1</v>
       </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -6654,6 +7892,9 @@
       <c r="D311" t="b">
         <v>0</v>
       </c>
+      <c r="E311" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -6674,6 +7915,11 @@
       <c r="D312" t="b">
         <v>0</v>
       </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -6694,6 +7940,11 @@
       <c r="D313" t="b">
         <v>0</v>
       </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -6714,6 +7965,9 @@
       <c r="D314" t="b">
         <v>1</v>
       </c>
+      <c r="E314" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -6734,6 +7988,11 @@
       <c r="D315" t="b">
         <v>0</v>
       </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -6754,6 +8013,11 @@
       <c r="D316" t="b">
         <v>1</v>
       </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -6774,6 +8038,9 @@
       <c r="D317" t="b">
         <v>1</v>
       </c>
+      <c r="E317" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -6794,6 +8061,9 @@
       <c r="D318" t="b">
         <v>0</v>
       </c>
+      <c r="E318" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -6814,6 +8084,11 @@
       <c r="D319" t="b">
         <v>0</v>
       </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -6834,6 +8109,9 @@
       <c r="D320" t="b">
         <v>0</v>
       </c>
+      <c r="E320" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -6854,6 +8132,11 @@
       <c r="D321" t="b">
         <v>0</v>
       </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -6874,6 +8157,9 @@
       <c r="D322" t="b">
         <v>0</v>
       </c>
+      <c r="E322" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -6894,6 +8180,9 @@
       <c r="D323" t="b">
         <v>0</v>
       </c>
+      <c r="E323" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -6914,6 +8203,9 @@
       <c r="D324" t="b">
         <v>0</v>
       </c>
+      <c r="E324" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -6934,6 +8226,9 @@
       <c r="D325" t="b">
         <v>0</v>
       </c>
+      <c r="E325" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -6954,6 +8249,11 @@
       <c r="D326" t="b">
         <v>0</v>
       </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -6974,6 +8274,11 @@
       <c r="D327" t="b">
         <v>1</v>
       </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -6994,6 +8299,11 @@
       <c r="D328" t="b">
         <v>1</v>
       </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -7014,6 +8324,9 @@
       <c r="D329" t="b">
         <v>0</v>
       </c>
+      <c r="E329" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -7034,6 +8347,9 @@
       <c r="D330" t="b">
         <v>1</v>
       </c>
+      <c r="E330" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -7054,6 +8370,11 @@
       <c r="D331" t="b">
         <v>0</v>
       </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -7074,6 +8395,11 @@
       <c r="D332" t="b">
         <v>0</v>
       </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -7094,6 +8420,11 @@
       <c r="D333" t="b">
         <v>0</v>
       </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -7114,6 +8445,9 @@
       <c r="D334" t="b">
         <v>0</v>
       </c>
+      <c r="E334" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -7134,6 +8468,9 @@
       <c r="D335" t="b">
         <v>1</v>
       </c>
+      <c r="E335" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -7154,6 +8491,11 @@
       <c r="D336" t="b">
         <v>0</v>
       </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -7174,6 +8516,9 @@
       <c r="D337" t="b">
         <v>1</v>
       </c>
+      <c r="E337" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -7194,6 +8539,9 @@
       <c r="D338" t="b">
         <v>0</v>
       </c>
+      <c r="E338" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -7214,6 +8562,11 @@
       <c r="D339" t="b">
         <v>0</v>
       </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -7234,6 +8587,11 @@
       <c r="D340" t="b">
         <v>0</v>
       </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -7254,6 +8612,9 @@
       <c r="D341" t="b">
         <v>0</v>
       </c>
+      <c r="E341" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -7274,6 +8635,9 @@
       <c r="D342" t="b">
         <v>0</v>
       </c>
+      <c r="E342" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -7294,6 +8658,11 @@
       <c r="D343" t="b">
         <v>0</v>
       </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -7314,6 +8683,11 @@
       <c r="D344" t="b">
         <v>0</v>
       </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -7334,6 +8708,11 @@
       <c r="D345" t="b">
         <v>0</v>
       </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -7354,6 +8733,11 @@
       <c r="D346" t="b">
         <v>0</v>
       </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -7374,6 +8758,9 @@
       <c r="D347" t="b">
         <v>0</v>
       </c>
+      <c r="E347" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -7394,6 +8781,9 @@
       <c r="D348" t="b">
         <v>0</v>
       </c>
+      <c r="E348" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -7414,6 +8804,9 @@
       <c r="D349" t="b">
         <v>0</v>
       </c>
+      <c r="E349" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -7434,6 +8827,11 @@
       <c r="D350" t="b">
         <v>1</v>
       </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -7454,6 +8852,11 @@
       <c r="D351" t="b">
         <v>0</v>
       </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -7474,6 +8877,9 @@
       <c r="D352" t="b">
         <v>0</v>
       </c>
+      <c r="E352" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -7494,6 +8900,9 @@
       <c r="D353" t="b">
         <v>0</v>
       </c>
+      <c r="E353" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -7514,6 +8923,11 @@
       <c r="D354" t="b">
         <v>1</v>
       </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -7534,6 +8948,11 @@
       <c r="D355" t="b">
         <v>0</v>
       </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -7554,6 +8973,9 @@
       <c r="D356" t="b">
         <v>1</v>
       </c>
+      <c r="E356" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -7574,6 +8996,11 @@
       <c r="D357" t="b">
         <v>0</v>
       </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -7594,6 +9021,9 @@
       <c r="D358" t="b">
         <v>0</v>
       </c>
+      <c r="E358" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -7614,6 +9044,11 @@
       <c r="D359" t="b">
         <v>0</v>
       </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -7634,6 +9069,11 @@
       <c r="D360" t="b">
         <v>0</v>
       </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -7654,6 +9094,9 @@
       <c r="D361" t="b">
         <v>0</v>
       </c>
+      <c r="E361" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -7674,6 +9117,9 @@
       <c r="D362" t="b">
         <v>1</v>
       </c>
+      <c r="E362" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -7694,6 +9140,11 @@
       <c r="D363" t="b">
         <v>0</v>
       </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -7714,6 +9165,9 @@
       <c r="D364" t="b">
         <v>0</v>
       </c>
+      <c r="E364" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -7734,6 +9188,11 @@
       <c r="D365" t="b">
         <v>0</v>
       </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -7754,6 +9213,11 @@
       <c r="D366" t="b">
         <v>0</v>
       </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -7774,6 +9238,11 @@
       <c r="D367" t="b">
         <v>0</v>
       </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -7794,6 +9263,9 @@
       <c r="D368" t="b">
         <v>1</v>
       </c>
+      <c r="E368" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -7814,6 +9286,11 @@
       <c r="D369" t="b">
         <v>0</v>
       </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -7834,6 +9311,9 @@
       <c r="D370" t="b">
         <v>0</v>
       </c>
+      <c r="E370" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -7854,6 +9334,11 @@
       <c r="D371" t="b">
         <v>1</v>
       </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -7874,6 +9359,11 @@
       <c r="D372" t="b">
         <v>1</v>
       </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -7894,6 +9384,11 @@
       <c r="D373" t="b">
         <v>1</v>
       </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -7914,6 +9409,9 @@
       <c r="D374" t="b">
         <v>0</v>
       </c>
+      <c r="E374" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -7934,6 +9432,9 @@
       <c r="D375" t="b">
         <v>0</v>
       </c>
+      <c r="E375" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -7954,6 +9455,9 @@
       <c r="D376" t="b">
         <v>1</v>
       </c>
+      <c r="E376" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -7974,6 +9478,11 @@
       <c r="D377" t="b">
         <v>1</v>
       </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -7994,6 +9503,11 @@
       <c r="D378" t="b">
         <v>0</v>
       </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -8014,6 +9528,9 @@
       <c r="D379" t="b">
         <v>0</v>
       </c>
+      <c r="E379" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -8034,6 +9551,9 @@
       <c r="D380" t="b">
         <v>0</v>
       </c>
+      <c r="E380" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -8054,6 +9574,9 @@
       <c r="D381" t="b">
         <v>1</v>
       </c>
+      <c r="E381" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -8074,6 +9597,9 @@
       <c r="D382" t="b">
         <v>0</v>
       </c>
+      <c r="E382" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -8094,6 +9620,9 @@
       <c r="D383" t="b">
         <v>1</v>
       </c>
+      <c r="E383" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -8114,6 +9643,11 @@
       <c r="D384" t="b">
         <v>0</v>
       </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -8134,6 +9668,11 @@
       <c r="D385" t="b">
         <v>0</v>
       </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -8154,6 +9693,11 @@
       <c r="D386" t="b">
         <v>1</v>
       </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -8174,6 +9718,9 @@
       <c r="D387" t="b">
         <v>0</v>
       </c>
+      <c r="E387" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -8194,6 +9741,9 @@
       <c r="D388" t="b">
         <v>1</v>
       </c>
+      <c r="E388" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -8214,6 +9764,11 @@
       <c r="D389" t="b">
         <v>0</v>
       </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -8234,6 +9789,9 @@
       <c r="D390" t="b">
         <v>1</v>
       </c>
+      <c r="E390" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -8254,6 +9812,9 @@
       <c r="D391" t="b">
         <v>0</v>
       </c>
+      <c r="E391" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -8274,6 +9835,11 @@
       <c r="D392" t="b">
         <v>0</v>
       </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -8294,6 +9860,11 @@
       <c r="D393" t="b">
         <v>1</v>
       </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -8314,6 +9885,9 @@
       <c r="D394" t="b">
         <v>1</v>
       </c>
+      <c r="E394" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -8334,6 +9908,9 @@
       <c r="D395" t="b">
         <v>1</v>
       </c>
+      <c r="E395" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -8354,6 +9931,11 @@
       <c r="D396" t="b">
         <v>0</v>
       </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -8374,6 +9956,9 @@
       <c r="D397" t="b">
         <v>1</v>
       </c>
+      <c r="E397" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -8394,6 +9979,11 @@
       <c r="D398" t="b">
         <v>1</v>
       </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -8414,6 +10004,11 @@
       <c r="D399" t="b">
         <v>1</v>
       </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -8434,6 +10029,9 @@
       <c r="D400" t="b">
         <v>1</v>
       </c>
+      <c r="E400" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -8454,6 +10052,9 @@
       <c r="D401" t="b">
         <v>0</v>
       </c>
+      <c r="E401" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -8474,6 +10075,11 @@
       <c r="D402" t="b">
         <v>0</v>
       </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -8494,6 +10100,9 @@
       <c r="D403" t="b">
         <v>0</v>
       </c>
+      <c r="E403" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -8514,6 +10123,9 @@
       <c r="D404" t="b">
         <v>0</v>
       </c>
+      <c r="E404" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -8534,6 +10146,9 @@
       <c r="D405" t="b">
         <v>0</v>
       </c>
+      <c r="E405" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -8554,6 +10169,9 @@
       <c r="D406" t="b">
         <v>0</v>
       </c>
+      <c r="E406" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -8574,6 +10192,11 @@
       <c r="D407" t="b">
         <v>1</v>
       </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -8594,6 +10217,9 @@
       <c r="D408" t="b">
         <v>0</v>
       </c>
+      <c r="E408" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -8614,6 +10240,9 @@
       <c r="D409" t="b">
         <v>0</v>
       </c>
+      <c r="E409" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -8634,6 +10263,11 @@
       <c r="D410" t="b">
         <v>0</v>
       </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -8654,6 +10288,11 @@
       <c r="D411" t="b">
         <v>0</v>
       </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -8674,6 +10313,9 @@
       <c r="D412" t="b">
         <v>0</v>
       </c>
+      <c r="E412" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -8694,6 +10336,11 @@
       <c r="D413" t="b">
         <v>1</v>
       </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -8714,6 +10361,9 @@
       <c r="D414" t="b">
         <v>1</v>
       </c>
+      <c r="E414" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -8734,6 +10384,9 @@
       <c r="D415" t="b">
         <v>0</v>
       </c>
+      <c r="E415" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -8754,6 +10407,9 @@
       <c r="D416" t="b">
         <v>1</v>
       </c>
+      <c r="E416" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -8774,6 +10430,11 @@
       <c r="D417" t="b">
         <v>0</v>
       </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -8794,6 +10455,9 @@
       <c r="D418" t="b">
         <v>0</v>
       </c>
+      <c r="E418" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -8814,6 +10478,9 @@
       <c r="D419" t="b">
         <v>0</v>
       </c>
+      <c r="E419" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -8834,6 +10501,9 @@
       <c r="D420" t="b">
         <v>1</v>
       </c>
+      <c r="E420" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -8854,6 +10524,11 @@
       <c r="D421" t="b">
         <v>1</v>
       </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -8874,6 +10549,11 @@
       <c r="D422" t="b">
         <v>0</v>
       </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -8894,6 +10574,11 @@
       <c r="D423" t="b">
         <v>0</v>
       </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -8914,6 +10599,11 @@
       <c r="D424" t="b">
         <v>0</v>
       </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -8934,6 +10624,11 @@
       <c r="D425" t="b">
         <v>1</v>
       </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -8954,6 +10649,9 @@
       <c r="D426" t="b">
         <v>0</v>
       </c>
+      <c r="E426" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -8974,6 +10672,11 @@
       <c r="D427" t="b">
         <v>0</v>
       </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -8994,6 +10697,11 @@
       <c r="D428" t="b">
         <v>0</v>
       </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -9014,6 +10722,11 @@
       <c r="D429" t="b">
         <v>0</v>
       </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -9034,6 +10747,9 @@
       <c r="D430" t="b">
         <v>0</v>
       </c>
+      <c r="E430" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -9054,6 +10770,9 @@
       <c r="D431" t="b">
         <v>0</v>
       </c>
+      <c r="E431" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -9074,6 +10793,9 @@
       <c r="D432" t="b">
         <v>1</v>
       </c>
+      <c r="E432" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -9094,6 +10816,11 @@
       <c r="D433" t="b">
         <v>1</v>
       </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -9114,6 +10841,11 @@
       <c r="D434" t="b">
         <v>1</v>
       </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -9134,6 +10866,9 @@
       <c r="D435" t="b">
         <v>0</v>
       </c>
+      <c r="E435" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -9154,6 +10889,9 @@
       <c r="D436" t="b">
         <v>0</v>
       </c>
+      <c r="E436" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -9174,6 +10912,11 @@
       <c r="D437" t="b">
         <v>1</v>
       </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -9194,6 +10937,11 @@
       <c r="D438" t="b">
         <v>0</v>
       </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -9214,6 +10962,9 @@
       <c r="D439" t="b">
         <v>0</v>
       </c>
+      <c r="E439" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -9234,6 +10985,9 @@
       <c r="D440" t="b">
         <v>1</v>
       </c>
+      <c r="E440" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -9254,6 +11008,9 @@
       <c r="D441" t="b">
         <v>1</v>
       </c>
+      <c r="E441" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -9274,6 +11031,11 @@
       <c r="D442" t="b">
         <v>1</v>
       </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -9294,6 +11056,9 @@
       <c r="D443" t="b">
         <v>1</v>
       </c>
+      <c r="E443" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -9314,6 +11079,9 @@
       <c r="D444" t="b">
         <v>0</v>
       </c>
+      <c r="E444" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -9334,6 +11102,9 @@
       <c r="D445" t="b">
         <v>0</v>
       </c>
+      <c r="E445" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -9354,6 +11125,9 @@
       <c r="D446" t="b">
         <v>0</v>
       </c>
+      <c r="E446" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -9374,6 +11148,9 @@
       <c r="D447" t="b">
         <v>0</v>
       </c>
+      <c r="E447" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -9394,6 +11171,9 @@
       <c r="D448" t="b">
         <v>1</v>
       </c>
+      <c r="E448" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -9414,6 +11194,9 @@
       <c r="D449" t="b">
         <v>1</v>
       </c>
+      <c r="E449" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -9434,6 +11217,11 @@
       <c r="D450" t="b">
         <v>0</v>
       </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -9454,6 +11242,9 @@
       <c r="D451" t="b">
         <v>1</v>
       </c>
+      <c r="E451" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -9474,6 +11265,11 @@
       <c r="D452" t="b">
         <v>0</v>
       </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -9494,6 +11290,9 @@
       <c r="D453" t="b">
         <v>0</v>
       </c>
+      <c r="E453" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -9514,6 +11313,9 @@
       <c r="D454" t="b">
         <v>1</v>
       </c>
+      <c r="E454" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -9534,6 +11336,9 @@
       <c r="D455" t="b">
         <v>0</v>
       </c>
+      <c r="E455" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -9554,6 +11359,9 @@
       <c r="D456" t="b">
         <v>0</v>
       </c>
+      <c r="E456" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -9574,6 +11382,9 @@
       <c r="D457" t="b">
         <v>0</v>
       </c>
+      <c r="E457" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -9594,6 +11405,9 @@
       <c r="D458" t="b">
         <v>0</v>
       </c>
+      <c r="E458" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -9614,6 +11428,11 @@
       <c r="D459" t="b">
         <v>0</v>
       </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -9634,6 +11453,9 @@
       <c r="D460" t="b">
         <v>0</v>
       </c>
+      <c r="E460" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -9654,6 +11476,11 @@
       <c r="D461" t="b">
         <v>0</v>
       </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -9674,6 +11501,11 @@
       <c r="D462" t="b">
         <v>0</v>
       </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -9694,6 +11526,9 @@
       <c r="D463" t="b">
         <v>1</v>
       </c>
+      <c r="E463" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -9714,6 +11549,9 @@
       <c r="D464" t="b">
         <v>0</v>
       </c>
+      <c r="E464" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -9734,6 +11572,11 @@
       <c r="D465" t="b">
         <v>1</v>
       </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -9754,6 +11597,9 @@
       <c r="D466" t="b">
         <v>1</v>
       </c>
+      <c r="E466" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -9774,6 +11620,9 @@
       <c r="D467" t="b">
         <v>1</v>
       </c>
+      <c r="E467" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -9794,6 +11643,9 @@
       <c r="D468" t="b">
         <v>0</v>
       </c>
+      <c r="E468" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -9814,6 +11666,9 @@
       <c r="D469" t="b">
         <v>0</v>
       </c>
+      <c r="E469" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -9834,6 +11689,11 @@
       <c r="D470" t="b">
         <v>0</v>
       </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -9854,6 +11714,11 @@
       <c r="D471" t="b">
         <v>0</v>
       </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -9874,6 +11739,9 @@
       <c r="D472" t="b">
         <v>0</v>
       </c>
+      <c r="E472" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -9894,6 +11762,9 @@
       <c r="D473" t="b">
         <v>0</v>
       </c>
+      <c r="E473" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -9914,6 +11785,9 @@
       <c r="D474" t="b">
         <v>0</v>
       </c>
+      <c r="E474" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -9934,6 +11808,9 @@
       <c r="D475" t="b">
         <v>0</v>
       </c>
+      <c r="E475" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -9954,6 +11831,9 @@
       <c r="D476" t="b">
         <v>0</v>
       </c>
+      <c r="E476" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -9974,6 +11854,11 @@
       <c r="D477" t="b">
         <v>1</v>
       </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -9994,6 +11879,9 @@
       <c r="D478" t="b">
         <v>0</v>
       </c>
+      <c r="E478" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -10014,6 +11902,11 @@
       <c r="D479" t="b">
         <v>0</v>
       </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -10034,6 +11927,11 @@
       <c r="D480" t="b">
         <v>0</v>
       </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -10054,6 +11952,11 @@
       <c r="D481" t="b">
         <v>0</v>
       </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -10074,6 +11977,11 @@
       <c r="D482" t="b">
         <v>0</v>
       </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -10094,6 +12002,11 @@
       <c r="D483" t="b">
         <v>0</v>
       </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -10114,6 +12027,9 @@
       <c r="D484" t="b">
         <v>0</v>
       </c>
+      <c r="E484" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -10134,6 +12050,11 @@
       <c r="D485" t="b">
         <v>0</v>
       </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -10154,6 +12075,11 @@
       <c r="D486" t="b">
         <v>0</v>
       </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -10174,6 +12100,11 @@
       <c r="D487" t="b">
         <v>0</v>
       </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -10194,6 +12125,11 @@
       <c r="D488" t="b">
         <v>1</v>
       </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -10214,6 +12150,11 @@
       <c r="D489" t="b">
         <v>0</v>
       </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -10234,6 +12175,9 @@
       <c r="D490" t="b">
         <v>1</v>
       </c>
+      <c r="E490" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -10254,6 +12198,11 @@
       <c r="D491" t="b">
         <v>0</v>
       </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -10274,6 +12223,9 @@
       <c r="D492" t="b">
         <v>0</v>
       </c>
+      <c r="E492" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -10294,6 +12246,9 @@
       <c r="D493" t="b">
         <v>0</v>
       </c>
+      <c r="E493" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -10314,6 +12269,11 @@
       <c r="D494" t="b">
         <v>0</v>
       </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -10334,6 +12294,11 @@
       <c r="D495" t="b">
         <v>0</v>
       </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -10354,6 +12319,11 @@
       <c r="D496" t="b">
         <v>0</v>
       </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -10374,6 +12344,11 @@
       <c r="D497" t="b">
         <v>1</v>
       </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -10394,6 +12369,11 @@
       <c r="D498" t="b">
         <v>1</v>
       </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -10414,6 +12394,11 @@
       <c r="D499" t="b">
         <v>0</v>
       </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -10434,6 +12419,9 @@
       <c r="D500" t="b">
         <v>0</v>
       </c>
+      <c r="E500" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -10454,6 +12442,11 @@
       <c r="D501" t="b">
         <v>0</v>
       </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -10474,6 +12467,11 @@
       <c r="D502" t="b">
         <v>0</v>
       </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -10494,6 +12492,11 @@
       <c r="D503" t="b">
         <v>1</v>
       </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -10514,6 +12517,11 @@
       <c r="D504" t="b">
         <v>1</v>
       </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -10534,6 +12542,9 @@
       <c r="D505" t="b">
         <v>0</v>
       </c>
+      <c r="E505" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -10554,6 +12565,9 @@
       <c r="D506" t="b">
         <v>1</v>
       </c>
+      <c r="E506" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -10574,6 +12588,9 @@
       <c r="D507" t="b">
         <v>1</v>
       </c>
+      <c r="E507" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -10594,6 +12611,11 @@
       <c r="D508" t="b">
         <v>0</v>
       </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -10614,6 +12636,9 @@
       <c r="D509" t="b">
         <v>1</v>
       </c>
+      <c r="E509" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -10634,6 +12659,11 @@
       <c r="D510" t="b">
         <v>1</v>
       </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -10654,6 +12684,11 @@
       <c r="D511" t="b">
         <v>0</v>
       </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -10674,6 +12709,11 @@
       <c r="D512" t="b">
         <v>0</v>
       </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -10694,6 +12734,9 @@
       <c r="D513" t="b">
         <v>0</v>
       </c>
+      <c r="E513" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -10714,6 +12757,9 @@
       <c r="D514" t="b">
         <v>0</v>
       </c>
+      <c r="E514" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -10734,6 +12780,11 @@
       <c r="D515" t="b">
         <v>1</v>
       </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -10754,6 +12805,9 @@
       <c r="D516" t="b">
         <v>1</v>
       </c>
+      <c r="E516" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -10774,6 +12828,11 @@
       <c r="D517" t="b">
         <v>1</v>
       </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -10794,6 +12853,11 @@
       <c r="D518" t="b">
         <v>0</v>
       </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -10814,6 +12878,11 @@
       <c r="D519" t="b">
         <v>0</v>
       </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -10834,6 +12903,11 @@
       <c r="D520" t="b">
         <v>0</v>
       </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -10854,6 +12928,9 @@
       <c r="D521" t="b">
         <v>1</v>
       </c>
+      <c r="E521" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -10874,6 +12951,11 @@
       <c r="D522" t="b">
         <v>0</v>
       </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -10893,6 +12975,11 @@
       </c>
       <c r="D523" t="b">
         <v>0</v>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/ccbhc_measurements/dashboard/excel files/ASC_sub_1.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/ASC_sub_1.xlsx
@@ -502,10 +502,8 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -596,10 +594,8 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -644,10 +640,8 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -692,10 +686,8 @@
       <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +732,8 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -857,10 +847,8 @@
       <c r="D18" t="b">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -882,10 +870,8 @@
       <c r="D19" t="b">
         <v>0</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -907,10 +893,8 @@
       <c r="D20" t="b">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -932,10 +916,8 @@
       <c r="D21" t="b">
         <v>1</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1003,10 +985,8 @@
       <c r="D24" t="b">
         <v>0</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1028,10 +1008,8 @@
       <c r="D25" t="b">
         <v>0</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1099,10 +1077,8 @@
       <c r="D28" t="b">
         <v>0</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1124,10 +1100,8 @@
       <c r="D29" t="b">
         <v>0</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1149,10 +1123,8 @@
       <c r="D30" t="b">
         <v>1</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1174,10 +1146,8 @@
       <c r="D31" t="b">
         <v>0</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1245,10 +1215,8 @@
       <c r="D34" t="b">
         <v>1</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1316,10 +1284,8 @@
       <c r="D37" t="b">
         <v>1</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1433,10 +1399,8 @@
       <c r="D42" t="b">
         <v>0</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1481,10 +1445,8 @@
       <c r="D44" t="b">
         <v>0</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1506,10 +1468,8 @@
       <c r="D45" t="b">
         <v>0</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1600,10 +1560,8 @@
       <c r="D49" t="b">
         <v>0</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1625,10 +1583,8 @@
       <c r="D50" t="b">
         <v>0</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1650,10 +1606,8 @@
       <c r="D51" t="b">
         <v>0</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1675,10 +1629,8 @@
       <c r="D52" t="b">
         <v>0</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1723,10 +1675,8 @@
       <c r="D54" t="b">
         <v>0</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E54" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1748,10 +1698,8 @@
       <c r="D55" t="b">
         <v>1</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1796,10 +1744,8 @@
       <c r="D57" t="b">
         <v>0</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1821,10 +1767,8 @@
       <c r="D58" t="b">
         <v>0</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1846,10 +1790,8 @@
       <c r="D59" t="b">
         <v>1</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1871,10 +1813,8 @@
       <c r="D60" t="b">
         <v>0</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1919,10 +1859,8 @@
       <c r="D62" t="b">
         <v>0</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E62" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1944,10 +1882,8 @@
       <c r="D63" t="b">
         <v>0</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1969,10 +1905,8 @@
       <c r="D64" t="b">
         <v>0</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E64" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2017,10 +1951,8 @@
       <c r="D66" t="b">
         <v>0</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E66" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2088,10 +2020,8 @@
       <c r="D69" t="b">
         <v>0</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E69" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2159,10 +2089,8 @@
       <c r="D72" t="b">
         <v>1</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2207,10 +2135,8 @@
       <c r="D74" t="b">
         <v>0</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2232,10 +2158,8 @@
       <c r="D75" t="b">
         <v>0</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E75" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2257,10 +2181,8 @@
       <c r="D76" t="b">
         <v>0</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E76" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2282,10 +2204,8 @@
       <c r="D77" t="b">
         <v>0</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E77" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2353,10 +2273,8 @@
       <c r="D80" t="b">
         <v>0</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E80" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2378,10 +2296,8 @@
       <c r="D81" t="b">
         <v>1</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E81" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2403,10 +2319,8 @@
       <c r="D82" t="b">
         <v>1</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E82" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2428,10 +2342,8 @@
       <c r="D83" t="b">
         <v>0</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E83" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2453,10 +2365,8 @@
       <c r="D84" t="b">
         <v>0</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E84" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2524,10 +2434,8 @@
       <c r="D87" t="b">
         <v>1</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E87" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2572,10 +2480,8 @@
       <c r="D89" t="b">
         <v>1</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E89" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2597,10 +2503,8 @@
       <c r="D90" t="b">
         <v>1</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E90" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2622,10 +2526,8 @@
       <c r="D91" t="b">
         <v>0</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E91" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2647,10 +2549,8 @@
       <c r="D92" t="b">
         <v>0</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E92" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2741,10 +2641,8 @@
       <c r="D96" t="b">
         <v>0</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E96" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2766,10 +2664,8 @@
       <c r="D97" t="b">
         <v>0</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E97" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2791,10 +2687,8 @@
       <c r="D98" t="b">
         <v>0</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E98" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2816,10 +2710,8 @@
       <c r="D99" t="b">
         <v>1</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E99" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2887,10 +2779,8 @@
       <c r="D102" t="b">
         <v>0</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E102" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2981,10 +2871,8 @@
       <c r="D106" t="b">
         <v>1</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E106" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3052,10 +2940,8 @@
       <c r="D109" t="b">
         <v>0</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E109" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3100,10 +2986,8 @@
       <c r="D111" t="b">
         <v>0</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E111" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3125,10 +3009,8 @@
       <c r="D112" t="b">
         <v>1</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E112" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3150,10 +3032,8 @@
       <c r="D113" t="b">
         <v>0</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E113" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -3221,10 +3101,8 @@
       <c r="D116" t="b">
         <v>0</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E116" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3246,10 +3124,8 @@
       <c r="D117" t="b">
         <v>0</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E117" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3271,10 +3147,8 @@
       <c r="D118" t="b">
         <v>0</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E118" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3319,10 +3193,8 @@
       <c r="D120" t="b">
         <v>0</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E120" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3344,10 +3216,8 @@
       <c r="D121" t="b">
         <v>1</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E121" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3369,10 +3239,8 @@
       <c r="D122" t="b">
         <v>0</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E122" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -3417,10 +3285,8 @@
       <c r="D124" t="b">
         <v>0</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E124" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3488,10 +3354,8 @@
       <c r="D127" t="b">
         <v>0</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E127" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3766,10 +3630,8 @@
       <c r="D139" t="b">
         <v>0</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E139" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3791,10 +3653,8 @@
       <c r="D140" t="b">
         <v>1</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E140" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -3839,10 +3699,8 @@
       <c r="D142" t="b">
         <v>0</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E142" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3910,10 +3768,8 @@
       <c r="D145" t="b">
         <v>1</v>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E145" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3958,10 +3814,8 @@
       <c r="D147" t="b">
         <v>0</v>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E147" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3983,10 +3837,8 @@
       <c r="D148" t="b">
         <v>1</v>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E148" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -4008,10 +3860,8 @@
       <c r="D149" t="b">
         <v>1</v>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E149" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -4056,10 +3906,8 @@
       <c r="D151" t="b">
         <v>0</v>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E151" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -4081,10 +3929,8 @@
       <c r="D152" t="b">
         <v>0</v>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E152" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -4152,10 +3998,8 @@
       <c r="D155" t="b">
         <v>0</v>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E155" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -4223,10 +4067,8 @@
       <c r="D158" t="b">
         <v>0</v>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E158" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -4248,10 +4090,8 @@
       <c r="D159" t="b">
         <v>1</v>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E159" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -4273,10 +4113,8 @@
       <c r="D160" t="b">
         <v>1</v>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E160" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -4321,10 +4159,8 @@
       <c r="D162" t="b">
         <v>1</v>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E162" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -4346,10 +4182,8 @@
       <c r="D163" t="b">
         <v>0</v>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E163" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -4371,10 +4205,8 @@
       <c r="D164" t="b">
         <v>1</v>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E164" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -4465,10 +4297,8 @@
       <c r="D168" t="b">
         <v>0</v>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E168" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -4513,10 +4343,8 @@
       <c r="D170" t="b">
         <v>0</v>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E170" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -4538,10 +4366,8 @@
       <c r="D171" t="b">
         <v>1</v>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E171" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4586,10 +4412,8 @@
       <c r="D173" t="b">
         <v>0</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E173" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4634,10 +4458,8 @@
       <c r="D175" t="b">
         <v>0</v>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E175" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4659,10 +4481,8 @@
       <c r="D176" t="b">
         <v>0</v>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E176" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -4684,10 +4504,8 @@
       <c r="D177" t="b">
         <v>1</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E177" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4709,10 +4527,8 @@
       <c r="D178" t="b">
         <v>0</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E178" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4734,10 +4550,8 @@
       <c r="D179" t="b">
         <v>0</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E179" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4759,10 +4573,8 @@
       <c r="D180" t="b">
         <v>1</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E180" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -4784,10 +4596,8 @@
       <c r="D181" t="b">
         <v>1</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E181" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -4809,10 +4619,8 @@
       <c r="D182" t="b">
         <v>1</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E182" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4834,10 +4642,8 @@
       <c r="D183" t="b">
         <v>0</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E183" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4859,10 +4665,8 @@
       <c r="D184" t="b">
         <v>0</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E184" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -4884,10 +4688,8 @@
       <c r="D185" t="b">
         <v>0</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E185" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -4955,10 +4757,8 @@
       <c r="D188" t="b">
         <v>0</v>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E188" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4980,10 +4780,8 @@
       <c r="D189" t="b">
         <v>0</v>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E189" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -5005,10 +4803,8 @@
       <c r="D190" t="b">
         <v>0</v>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E190" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -5030,10 +4826,8 @@
       <c r="D191" t="b">
         <v>0</v>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E191" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -5101,10 +4895,8 @@
       <c r="D194" t="b">
         <v>0</v>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E194" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -5195,10 +4987,8 @@
       <c r="D198" t="b">
         <v>1</v>
       </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E198" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -5335,10 +5125,8 @@
       <c r="D204" t="b">
         <v>0</v>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E204" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -5429,10 +5217,8 @@
       <c r="D208" t="b">
         <v>1</v>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E208" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -5477,10 +5263,8 @@
       <c r="D210" t="b">
         <v>0</v>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E210" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -5502,10 +5286,8 @@
       <c r="D211" t="b">
         <v>0</v>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E211" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -5527,10 +5309,8 @@
       <c r="D212" t="b">
         <v>0</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E212" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -5713,10 +5493,8 @@
       <c r="D220" t="b">
         <v>0</v>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E220" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -5738,10 +5516,8 @@
       <c r="D221" t="b">
         <v>1</v>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E221" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -5809,10 +5585,8 @@
       <c r="D224" t="b">
         <v>1</v>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E224" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -5834,10 +5608,8 @@
       <c r="D225" t="b">
         <v>0</v>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E225" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -5905,10 +5677,8 @@
       <c r="D228" t="b">
         <v>0</v>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E228" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -5930,10 +5700,8 @@
       <c r="D229" t="b">
         <v>1</v>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E229" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -5955,10 +5723,8 @@
       <c r="D230" t="b">
         <v>0</v>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E230" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -6095,10 +5861,8 @@
       <c r="D236" t="b">
         <v>0</v>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E236" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -6120,10 +5884,8 @@
       <c r="D237" t="b">
         <v>0</v>
       </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E237" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -6191,10 +5953,8 @@
       <c r="D240" t="b">
         <v>0</v>
       </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E240" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -6239,10 +5999,8 @@
       <c r="D242" t="b">
         <v>0</v>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E242" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -6287,10 +6045,8 @@
       <c r="D244" t="b">
         <v>1</v>
       </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E244" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -6358,10 +6114,8 @@
       <c r="D247" t="b">
         <v>0</v>
       </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E247" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -6429,10 +6183,8 @@
       <c r="D250" t="b">
         <v>0</v>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E250" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -6454,10 +6206,8 @@
       <c r="D251" t="b">
         <v>0</v>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E251" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -6479,10 +6229,8 @@
       <c r="D252" t="b">
         <v>0</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E252" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -6527,10 +6275,8 @@
       <c r="D254" t="b">
         <v>0</v>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E254" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -6552,10 +6298,8 @@
       <c r="D255" t="b">
         <v>0</v>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E255" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -6577,10 +6321,8 @@
       <c r="D256" t="b">
         <v>0</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E256" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -6602,10 +6344,8 @@
       <c r="D257" t="b">
         <v>0</v>
       </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E257" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -6650,10 +6390,8 @@
       <c r="D259" t="b">
         <v>0</v>
       </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E259" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -6675,10 +6413,8 @@
       <c r="D260" t="b">
         <v>0</v>
       </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E260" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -6700,10 +6436,8 @@
       <c r="D261" t="b">
         <v>0</v>
       </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E261" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -6771,10 +6505,8 @@
       <c r="D264" t="b">
         <v>0</v>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E264" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -6934,10 +6666,8 @@
       <c r="D271" t="b">
         <v>1</v>
       </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E271" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -6982,10 +6712,8 @@
       <c r="D273" t="b">
         <v>0</v>
       </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E273" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -7007,10 +6735,8 @@
       <c r="D274" t="b">
         <v>1</v>
       </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E274" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -7055,10 +6781,8 @@
       <c r="D276" t="b">
         <v>1</v>
       </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E276" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -7103,10 +6827,8 @@
       <c r="D278" t="b">
         <v>1</v>
       </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E278" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -7128,10 +6850,8 @@
       <c r="D279" t="b">
         <v>1</v>
       </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E279" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -7199,10 +6919,8 @@
       <c r="D282" t="b">
         <v>0</v>
       </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E282" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -7224,10 +6942,8 @@
       <c r="D283" t="b">
         <v>0</v>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E283" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -7249,10 +6965,8 @@
       <c r="D284" t="b">
         <v>0</v>
       </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E284" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -7274,10 +6988,8 @@
       <c r="D285" t="b">
         <v>0</v>
       </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E285" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -7368,10 +7080,8 @@
       <c r="D289" t="b">
         <v>1</v>
       </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E289" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -7439,10 +7149,8 @@
       <c r="D292" t="b">
         <v>1</v>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E292" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -7579,10 +7287,8 @@
       <c r="D298" t="b">
         <v>1</v>
       </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E298" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -7627,10 +7333,8 @@
       <c r="D300" t="b">
         <v>0</v>
       </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E300" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -7652,10 +7356,8 @@
       <c r="D301" t="b">
         <v>0</v>
       </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E301" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -7700,10 +7402,8 @@
       <c r="D303" t="b">
         <v>0</v>
       </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E303" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -7817,10 +7517,8 @@
       <c r="D308" t="b">
         <v>0</v>
       </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E308" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -7842,10 +7540,8 @@
       <c r="D309" t="b">
         <v>0</v>
       </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E309" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -7867,10 +7563,8 @@
       <c r="D310" t="b">
         <v>1</v>
       </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E310" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -7915,10 +7609,8 @@
       <c r="D312" t="b">
         <v>0</v>
       </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E312" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -7940,10 +7632,8 @@
       <c r="D313" t="b">
         <v>0</v>
       </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E313" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -7988,10 +7678,8 @@
       <c r="D315" t="b">
         <v>0</v>
       </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E315" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -8013,10 +7701,8 @@
       <c r="D316" t="b">
         <v>1</v>
       </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E316" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -8084,10 +7770,8 @@
       <c r="D319" t="b">
         <v>0</v>
       </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E319" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -8132,10 +7816,8 @@
       <c r="D321" t="b">
         <v>0</v>
       </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E321" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -8249,10 +7931,8 @@
       <c r="D326" t="b">
         <v>0</v>
       </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E326" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -8274,10 +7954,8 @@
       <c r="D327" t="b">
         <v>1</v>
       </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E327" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -8299,10 +7977,8 @@
       <c r="D328" t="b">
         <v>1</v>
       </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E328" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -8370,10 +8046,8 @@
       <c r="D331" t="b">
         <v>0</v>
       </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E331" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -8395,10 +8069,8 @@
       <c r="D332" t="b">
         <v>0</v>
       </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E332" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -8420,10 +8092,8 @@
       <c r="D333" t="b">
         <v>0</v>
       </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E333" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -8491,10 +8161,8 @@
       <c r="D336" t="b">
         <v>0</v>
       </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E336" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -8562,10 +8230,8 @@
       <c r="D339" t="b">
         <v>0</v>
       </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E339" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -8587,10 +8253,8 @@
       <c r="D340" t="b">
         <v>0</v>
       </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E340" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -8658,10 +8322,8 @@
       <c r="D343" t="b">
         <v>0</v>
       </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E343" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -8683,10 +8345,8 @@
       <c r="D344" t="b">
         <v>0</v>
       </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E344" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -8708,10 +8368,8 @@
       <c r="D345" t="b">
         <v>0</v>
       </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E345" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -8733,10 +8391,8 @@
       <c r="D346" t="b">
         <v>0</v>
       </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E346" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -8827,10 +8483,8 @@
       <c r="D350" t="b">
         <v>1</v>
       </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E350" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -8852,10 +8506,8 @@
       <c r="D351" t="b">
         <v>0</v>
       </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E351" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -8923,10 +8575,8 @@
       <c r="D354" t="b">
         <v>1</v>
       </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E354" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -8948,10 +8598,8 @@
       <c r="D355" t="b">
         <v>0</v>
       </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E355" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -8996,10 +8644,8 @@
       <c r="D357" t="b">
         <v>0</v>
       </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E357" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -9044,10 +8690,8 @@
       <c r="D359" t="b">
         <v>0</v>
       </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E359" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -9069,10 +8713,8 @@
       <c r="D360" t="b">
         <v>0</v>
       </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E360" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -9140,10 +8782,8 @@
       <c r="D363" t="b">
         <v>0</v>
       </c>
-      <c r="E363" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E363" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -9188,10 +8828,8 @@
       <c r="D365" t="b">
         <v>0</v>
       </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E365" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -9213,10 +8851,8 @@
       <c r="D366" t="b">
         <v>0</v>
       </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E366" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -9238,10 +8874,8 @@
       <c r="D367" t="b">
         <v>0</v>
       </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E367" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -9286,10 +8920,8 @@
       <c r="D369" t="b">
         <v>0</v>
       </c>
-      <c r="E369" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E369" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -9334,10 +8966,8 @@
       <c r="D371" t="b">
         <v>1</v>
       </c>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E371" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -9359,10 +8989,8 @@
       <c r="D372" t="b">
         <v>1</v>
       </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E372" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -9384,10 +9012,8 @@
       <c r="D373" t="b">
         <v>1</v>
       </c>
-      <c r="E373" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E373" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -9478,10 +9104,8 @@
       <c r="D377" t="b">
         <v>1</v>
       </c>
-      <c r="E377" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E377" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -9503,10 +9127,8 @@
       <c r="D378" t="b">
         <v>0</v>
       </c>
-      <c r="E378" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E378" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -9643,10 +9265,8 @@
       <c r="D384" t="b">
         <v>0</v>
       </c>
-      <c r="E384" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E384" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -9668,10 +9288,8 @@
       <c r="D385" t="b">
         <v>0</v>
       </c>
-      <c r="E385" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E385" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -9693,10 +9311,8 @@
       <c r="D386" t="b">
         <v>1</v>
       </c>
-      <c r="E386" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E386" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -9764,10 +9380,8 @@
       <c r="D389" t="b">
         <v>0</v>
       </c>
-      <c r="E389" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E389" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -9835,10 +9449,8 @@
       <c r="D392" t="b">
         <v>0</v>
       </c>
-      <c r="E392" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E392" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -9860,10 +9472,8 @@
       <c r="D393" t="b">
         <v>1</v>
       </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E393" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -9931,10 +9541,8 @@
       <c r="D396" t="b">
         <v>0</v>
       </c>
-      <c r="E396" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E396" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -9979,10 +9587,8 @@
       <c r="D398" t="b">
         <v>1</v>
       </c>
-      <c r="E398" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E398" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -10004,10 +9610,8 @@
       <c r="D399" t="b">
         <v>1</v>
       </c>
-      <c r="E399" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E399" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -10075,10 +9679,8 @@
       <c r="D402" t="b">
         <v>0</v>
       </c>
-      <c r="E402" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E402" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -10192,10 +9794,8 @@
       <c r="D407" t="b">
         <v>1</v>
       </c>
-      <c r="E407" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E407" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -10263,10 +9863,8 @@
       <c r="D410" t="b">
         <v>0</v>
       </c>
-      <c r="E410" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E410" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -10288,10 +9886,8 @@
       <c r="D411" t="b">
         <v>0</v>
       </c>
-      <c r="E411" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E411" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -10336,10 +9932,8 @@
       <c r="D413" t="b">
         <v>1</v>
       </c>
-      <c r="E413" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E413" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -10430,10 +10024,8 @@
       <c r="D417" t="b">
         <v>0</v>
       </c>
-      <c r="E417" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E417" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -10524,10 +10116,8 @@
       <c r="D421" t="b">
         <v>1</v>
       </c>
-      <c r="E421" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E421" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -10549,10 +10139,8 @@
       <c r="D422" t="b">
         <v>0</v>
       </c>
-      <c r="E422" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E422" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -10574,10 +10162,8 @@
       <c r="D423" t="b">
         <v>0</v>
       </c>
-      <c r="E423" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E423" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -10599,10 +10185,8 @@
       <c r="D424" t="b">
         <v>0</v>
       </c>
-      <c r="E424" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E424" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -10624,10 +10208,8 @@
       <c r="D425" t="b">
         <v>1</v>
       </c>
-      <c r="E425" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E425" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -10672,10 +10254,8 @@
       <c r="D427" t="b">
         <v>0</v>
       </c>
-      <c r="E427" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E427" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -10697,10 +10277,8 @@
       <c r="D428" t="b">
         <v>0</v>
       </c>
-      <c r="E428" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E428" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -10722,10 +10300,8 @@
       <c r="D429" t="b">
         <v>0</v>
       </c>
-      <c r="E429" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E429" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -10816,10 +10392,8 @@
       <c r="D433" t="b">
         <v>1</v>
       </c>
-      <c r="E433" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E433" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -10841,10 +10415,8 @@
       <c r="D434" t="b">
         <v>1</v>
       </c>
-      <c r="E434" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E434" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -10912,10 +10484,8 @@
       <c r="D437" t="b">
         <v>1</v>
       </c>
-      <c r="E437" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E437" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -10937,10 +10507,8 @@
       <c r="D438" t="b">
         <v>0</v>
       </c>
-      <c r="E438" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E438" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -11031,10 +10599,8 @@
       <c r="D442" t="b">
         <v>1</v>
       </c>
-      <c r="E442" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E442" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -11217,10 +10783,8 @@
       <c r="D450" t="b">
         <v>0</v>
       </c>
-      <c r="E450" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E450" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -11265,10 +10829,8 @@
       <c r="D452" t="b">
         <v>0</v>
       </c>
-      <c r="E452" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E452" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -11428,10 +10990,8 @@
       <c r="D459" t="b">
         <v>0</v>
       </c>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E459" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -11476,10 +11036,8 @@
       <c r="D461" t="b">
         <v>0</v>
       </c>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E461" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -11501,10 +11059,8 @@
       <c r="D462" t="b">
         <v>0</v>
       </c>
-      <c r="E462" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E462" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -11572,10 +11128,8 @@
       <c r="D465" t="b">
         <v>1</v>
       </c>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E465" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -11689,10 +11243,8 @@
       <c r="D470" t="b">
         <v>0</v>
       </c>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E470" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -11714,10 +11266,8 @@
       <c r="D471" t="b">
         <v>0</v>
       </c>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E471" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -11854,10 +11404,8 @@
       <c r="D477" t="b">
         <v>1</v>
       </c>
-      <c r="E477" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E477" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -11902,10 +11450,8 @@
       <c r="D479" t="b">
         <v>0</v>
       </c>
-      <c r="E479" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E479" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -11927,10 +11473,8 @@
       <c r="D480" t="b">
         <v>0</v>
       </c>
-      <c r="E480" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E480" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -11952,10 +11496,8 @@
       <c r="D481" t="b">
         <v>0</v>
       </c>
-      <c r="E481" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E481" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -11977,10 +11519,8 @@
       <c r="D482" t="b">
         <v>0</v>
       </c>
-      <c r="E482" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E482" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -12002,10 +11542,8 @@
       <c r="D483" t="b">
         <v>0</v>
       </c>
-      <c r="E483" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E483" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -12050,10 +11588,8 @@
       <c r="D485" t="b">
         <v>0</v>
       </c>
-      <c r="E485" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E485" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -12075,10 +11611,8 @@
       <c r="D486" t="b">
         <v>0</v>
       </c>
-      <c r="E486" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E486" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -12100,10 +11634,8 @@
       <c r="D487" t="b">
         <v>0</v>
       </c>
-      <c r="E487" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E487" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -12125,10 +11657,8 @@
       <c r="D488" t="b">
         <v>1</v>
       </c>
-      <c r="E488" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E488" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -12150,10 +11680,8 @@
       <c r="D489" t="b">
         <v>0</v>
       </c>
-      <c r="E489" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E489" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -12198,10 +11726,8 @@
       <c r="D491" t="b">
         <v>0</v>
       </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E491" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -12269,10 +11795,8 @@
       <c r="D494" t="b">
         <v>0</v>
       </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E494" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -12294,10 +11818,8 @@
       <c r="D495" t="b">
         <v>0</v>
       </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E495" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -12319,10 +11841,8 @@
       <c r="D496" t="b">
         <v>0</v>
       </c>
-      <c r="E496" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E496" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -12344,10 +11864,8 @@
       <c r="D497" t="b">
         <v>1</v>
       </c>
-      <c r="E497" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E497" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -12369,10 +11887,8 @@
       <c r="D498" t="b">
         <v>1</v>
       </c>
-      <c r="E498" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E498" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -12394,10 +11910,8 @@
       <c r="D499" t="b">
         <v>0</v>
       </c>
-      <c r="E499" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E499" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -12442,10 +11956,8 @@
       <c r="D501" t="b">
         <v>0</v>
       </c>
-      <c r="E501" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E501" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -12467,10 +11979,8 @@
       <c r="D502" t="b">
         <v>0</v>
       </c>
-      <c r="E502" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E502" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -12492,10 +12002,8 @@
       <c r="D503" t="b">
         <v>1</v>
       </c>
-      <c r="E503" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E503" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -12517,10 +12025,8 @@
       <c r="D504" t="b">
         <v>1</v>
       </c>
-      <c r="E504" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E504" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -12611,10 +12117,8 @@
       <c r="D508" t="b">
         <v>0</v>
       </c>
-      <c r="E508" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E508" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="509">
@@ -12659,10 +12163,8 @@
       <c r="D510" t="b">
         <v>1</v>
       </c>
-      <c r="E510" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E510" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -12684,10 +12186,8 @@
       <c r="D511" t="b">
         <v>0</v>
       </c>
-      <c r="E511" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E511" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -12709,10 +12209,8 @@
       <c r="D512" t="b">
         <v>0</v>
       </c>
-      <c r="E512" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E512" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -12780,10 +12278,8 @@
       <c r="D515" t="b">
         <v>1</v>
       </c>
-      <c r="E515" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E515" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -12828,10 +12324,8 @@
       <c r="D517" t="b">
         <v>1</v>
       </c>
-      <c r="E517" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E517" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -12853,10 +12347,8 @@
       <c r="D518" t="b">
         <v>0</v>
       </c>
-      <c r="E518" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E518" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -12878,10 +12370,8 @@
       <c r="D519" t="b">
         <v>0</v>
       </c>
-      <c r="E519" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E519" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -12903,10 +12393,8 @@
       <c r="D520" t="b">
         <v>0</v>
       </c>
-      <c r="E520" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E520" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -12951,10 +12439,8 @@
       <c r="D522" t="b">
         <v>0</v>
       </c>
-      <c r="E522" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E522" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -12976,10 +12462,8 @@
       <c r="D523" t="b">
         <v>0</v>
       </c>
-      <c r="E523" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+      <c r="E523" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ccbhc_measurements/dashboard/excel files/ASC_sub_1.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/ASC_sub_1.xlsx
@@ -471,11 +471,7 @@
           <t>10047-2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>45275</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="b">
         <v>0</v>
       </c>
@@ -494,11 +490,7 @@
           <t>10150-2024</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>70346</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="b">
         <v>0</v>
       </c>
@@ -517,11 +509,7 @@
           <t>10299-2024</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>65899</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="b">
         <v>0</v>
       </c>
@@ -540,11 +528,7 @@
           <t>10417-2024</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>52216</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="b">
         <v>0</v>
       </c>
@@ -563,11 +547,7 @@
           <t>10610-2024</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>79283</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="b">
         <v>0</v>
       </c>
@@ -588,7 +568,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>83925</t>
+          <t>74691</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -609,11 +589,7 @@
           <t>10956-2024</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>65483</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="b">
         <v>0</v>
       </c>
@@ -632,11 +608,7 @@
           <t>11461-2024</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>96584</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="b">
         <v>0</v>
       </c>
@@ -701,11 +673,7 @@
           <t>11884-2024</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>37926</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="b">
         <v>0</v>
       </c>
@@ -724,11 +692,7 @@
           <t>11894-2024</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>94680</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="b">
         <v>0</v>
       </c>
@@ -747,11 +711,7 @@
           <t>12169-2024</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>75125</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="b">
         <v>0</v>
       </c>
@@ -770,11 +730,7 @@
           <t>12904-2024</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>71129</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="b">
         <v>0</v>
       </c>
@@ -795,7 +751,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>29166</t>
+          <t>17515</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -816,11 +772,7 @@
           <t>13082-2024</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>28291</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="b">
         <v>0</v>
       </c>
@@ -839,11 +791,7 @@
           <t>13113-2024</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>77381</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="b">
         <v>0</v>
       </c>
@@ -862,11 +810,7 @@
           <t>13220-2024</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>78484</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="b">
         <v>0</v>
       </c>
@@ -885,11 +829,7 @@
           <t>13225-2024</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>65919</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="b">
         <v>0</v>
       </c>
@@ -908,11 +848,7 @@
           <t>13285-2024</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>59063</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="b">
         <v>0</v>
       </c>
@@ -931,11 +867,7 @@
           <t>13394-2024</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>41710</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="b">
         <v>0</v>
       </c>
@@ -954,11 +886,7 @@
           <t>13449-2024</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>35095</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="b">
         <v>0</v>
       </c>
@@ -977,11 +905,7 @@
           <t>13575-2024</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>12866</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="b">
         <v>0</v>
       </c>
@@ -1000,11 +924,7 @@
           <t>13585-2024</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>88257</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="b">
         <v>0</v>
       </c>
@@ -1023,11 +943,7 @@
           <t>13595-2024</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>99660</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="b">
         <v>0</v>
       </c>
@@ -1046,11 +962,7 @@
           <t>13854-2024</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>28409</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="b">
         <v>0</v>
       </c>
@@ -1069,11 +981,7 @@
           <t>13879-2024</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>57037</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="b">
         <v>0</v>
       </c>
@@ -1092,11 +1000,7 @@
           <t>13948-2024</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>41853</t>
-        </is>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="b">
         <v>0</v>
       </c>
@@ -1115,11 +1019,7 @@
           <t>14132-2024</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>96739</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="b">
         <v>0</v>
       </c>
@@ -1138,11 +1038,7 @@
           <t>14199-2024</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>66382</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="b">
         <v>0</v>
       </c>
@@ -1161,11 +1057,7 @@
           <t>14630-2024</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>19708</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="b">
         <v>0</v>
       </c>
@@ -1184,11 +1076,7 @@
           <t>14690-2024</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>59365</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="b">
         <v>0</v>
       </c>
@@ -1207,11 +1095,7 @@
           <t>14982-2024</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>17170</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="b">
         <v>0</v>
       </c>
@@ -1230,11 +1114,7 @@
           <t>15302-2024</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>81053</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="b">
         <v>0</v>
       </c>
@@ -1253,11 +1133,7 @@
           <t>15375-2024</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>51775</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="b">
         <v>0</v>
       </c>
@@ -1276,11 +1152,7 @@
           <t>15444-2024</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>64242</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="b">
         <v>0</v>
       </c>
@@ -1301,7 +1173,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>89985</t>
+          <t>55899</t>
         </is>
       </c>
       <c r="D38" t="b">
@@ -1324,7 +1196,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>40538</t>
+          <t>65679</t>
         </is>
       </c>
       <c r="D39" t="b">
@@ -1345,11 +1217,7 @@
           <t>15955-2024</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>88393</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="b">
         <v>0</v>
       </c>
@@ -1368,11 +1236,7 @@
           <t>15995-2024</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>17113</t>
-        </is>
-      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="b">
         <v>0</v>
       </c>
@@ -1391,11 +1255,7 @@
           <t>16034-2024</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>66271</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="b">
         <v>0</v>
       </c>
@@ -1414,11 +1274,7 @@
           <t>16181-2024</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>12275</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="b">
         <v>0</v>
       </c>
@@ -1437,11 +1293,7 @@
           <t>16401-2024</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>60079</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="b">
         <v>0</v>
       </c>
@@ -1462,7 +1314,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>43953</t>
+          <t>40124</t>
         </is>
       </c>
       <c r="D45" t="b">
@@ -1483,11 +1335,7 @@
           <t>16712-2024</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>42497</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="b">
         <v>0</v>
       </c>
@@ -1506,11 +1354,7 @@
           <t>17434-2024</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>16841</t>
-        </is>
-      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="b">
         <v>0</v>
       </c>
@@ -1529,11 +1373,7 @@
           <t>17718-2024</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>70491</t>
-        </is>
-      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="b">
         <v>0</v>
       </c>
@@ -1552,11 +1392,7 @@
           <t>17973-2024</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>78525</t>
-        </is>
-      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="b">
         <v>0</v>
       </c>
@@ -1575,11 +1411,7 @@
           <t>17980-2024</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>96875</t>
-        </is>
-      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="b">
         <v>0</v>
       </c>
@@ -1598,11 +1430,7 @@
           <t>18064-2024</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>92255</t>
-        </is>
-      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="b">
         <v>0</v>
       </c>
@@ -1621,11 +1449,7 @@
           <t>18253-2024</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>51586</t>
-        </is>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="b">
         <v>0</v>
       </c>
@@ -1667,11 +1491,7 @@
           <t>19171-2024</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>37815</t>
-        </is>
-      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="b">
         <v>0</v>
       </c>
@@ -1690,11 +1510,7 @@
           <t>19234-2024</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>24167</t>
-        </is>
-      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="b">
         <v>0</v>
       </c>
@@ -1713,11 +1529,7 @@
           <t>19418-2024</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>62327</t>
-        </is>
-      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="b">
         <v>0</v>
       </c>
@@ -1736,11 +1548,7 @@
           <t>19629-2024</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>37342</t>
-        </is>
-      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="b">
         <v>0</v>
       </c>
@@ -1759,11 +1567,7 @@
           <t>19780-2024</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>12740</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="b">
         <v>0</v>
       </c>
@@ -1782,11 +1586,7 @@
           <t>19813-2024</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>51205</t>
-        </is>
-      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="b">
         <v>0</v>
       </c>
@@ -1805,11 +1605,7 @@
           <t>19831-2024</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>57741</t>
-        </is>
-      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="b">
         <v>0</v>
       </c>
@@ -1828,11 +1624,7 @@
           <t>19950-2024</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>36972</t>
-        </is>
-      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="b">
         <v>0</v>
       </c>
@@ -1851,11 +1643,7 @@
           <t>20202-2024</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>92438</t>
-        </is>
-      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="b">
         <v>0</v>
       </c>
@@ -1874,11 +1662,7 @@
           <t>20297-2024</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>80724</t>
-        </is>
-      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="b">
         <v>0</v>
       </c>
@@ -1897,11 +1681,7 @@
           <t>20433-2024</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>81412</t>
-        </is>
-      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="b">
         <v>0</v>
       </c>
@@ -1922,7 +1702,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>73912</t>
+          <t>30869</t>
         </is>
       </c>
       <c r="D65" t="b">
@@ -1943,11 +1723,7 @@
           <t>21268-2024</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>49353</t>
-        </is>
-      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="b">
         <v>0</v>
       </c>
@@ -1968,7 +1744,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>27108</t>
+          <t>46547</t>
         </is>
       </c>
       <c r="D67" t="b">
@@ -1991,7 +1767,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>52090</t>
+          <t>11613</t>
         </is>
       </c>
       <c r="D68" t="b">
@@ -2012,11 +1788,7 @@
           <t>22095-2024</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>11950</t>
-        </is>
-      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="b">
         <v>0</v>
       </c>
@@ -2037,7 +1809,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>32302</t>
+          <t>92988</t>
         </is>
       </c>
       <c r="D70" t="b">
@@ -2058,11 +1830,7 @@
           <t>22318-2024</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>76274</t>
-        </is>
-      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="b">
         <v>0</v>
       </c>
@@ -2083,7 +1851,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>15792</t>
+          <t>79649</t>
         </is>
       </c>
       <c r="D72" t="b">
@@ -2104,11 +1872,7 @@
           <t>22566-2024</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>44423</t>
-        </is>
-      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="b">
         <v>0</v>
       </c>
@@ -2127,11 +1891,7 @@
           <t>22636-2024</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>18298</t>
-        </is>
-      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="b">
         <v>0</v>
       </c>
@@ -2150,11 +1910,7 @@
           <t>22718-2024</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>66149</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="b">
         <v>0</v>
       </c>
@@ -2173,11 +1929,7 @@
           <t>22777-2024</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>36976</t>
-        </is>
-      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="b">
         <v>0</v>
       </c>
@@ -2196,11 +1948,7 @@
           <t>22832-2024</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>79553</t>
-        </is>
-      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="b">
         <v>0</v>
       </c>
@@ -2219,11 +1967,7 @@
           <t>22888-2024</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>19159</t>
-        </is>
-      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="b">
         <v>0</v>
       </c>
@@ -2242,11 +1986,7 @@
           <t>22911-2024</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>78458</t>
-        </is>
-      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="b">
         <v>0</v>
       </c>
@@ -2265,11 +2005,7 @@
           <t>23032-2024</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>98650</t>
-        </is>
-      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="b">
         <v>0</v>
       </c>
@@ -2288,11 +2024,7 @@
           <t>23216-2024</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>26991</t>
-        </is>
-      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="b">
         <v>0</v>
       </c>
@@ -2311,11 +2043,7 @@
           <t>23366-2024</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>63004</t>
-        </is>
-      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="b">
         <v>0</v>
       </c>
@@ -2334,11 +2062,7 @@
           <t>23399-2024</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>61127</t>
-        </is>
-      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="b">
         <v>0</v>
       </c>
@@ -2357,11 +2081,7 @@
           <t>23729-2024</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>12237</t>
-        </is>
-      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="b">
         <v>0</v>
       </c>
@@ -2380,11 +2100,7 @@
           <t>23879-2024</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>64329</t>
-        </is>
-      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="b">
         <v>0</v>
       </c>
@@ -2405,7 +2121,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>13938</t>
+          <t>52107</t>
         </is>
       </c>
       <c r="D86" t="b">
@@ -2426,11 +2142,7 @@
           <t>24281-2024</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>45729</t>
-        </is>
-      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="b">
         <v>0</v>
       </c>
@@ -2451,7 +2163,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>47600</t>
+          <t>85086</t>
         </is>
       </c>
       <c r="D88" t="b">
@@ -2472,11 +2184,7 @@
           <t>24552-2024</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>31896</t>
-        </is>
-      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="b">
         <v>0</v>
       </c>
@@ -2495,11 +2203,7 @@
           <t>24633-2024</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>46106</t>
-        </is>
-      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="b">
         <v>0</v>
       </c>
@@ -2518,11 +2222,7 @@
           <t>25320-2024</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>92496</t>
-        </is>
-      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="b">
         <v>0</v>
       </c>
@@ -2541,11 +2241,7 @@
           <t>25531-2024</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>18346</t>
-        </is>
-      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="b">
         <v>0</v>
       </c>
@@ -2564,11 +2260,7 @@
           <t>25557-2024</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>74686</t>
-        </is>
-      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="b">
         <v>0</v>
       </c>
@@ -2589,7 +2281,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>46737</t>
+          <t>31123</t>
         </is>
       </c>
       <c r="D94" t="b">
@@ -2612,7 +2304,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>54133</t>
+          <t>45794</t>
         </is>
       </c>
       <c r="D95" t="b">
@@ -2633,11 +2325,7 @@
           <t>25693-2024</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>29581</t>
-        </is>
-      </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="b">
         <v>0</v>
       </c>
@@ -2656,11 +2344,7 @@
           <t>25702-2024</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>31047</t>
-        </is>
-      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="b">
         <v>0</v>
       </c>
@@ -2679,11 +2363,7 @@
           <t>25747-2024</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>66673</t>
-        </is>
-      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="b">
         <v>0</v>
       </c>
@@ -2702,11 +2382,7 @@
           <t>25762-2024</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>24765</t>
-        </is>
-      </c>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="b">
         <v>0</v>
       </c>
@@ -2725,11 +2401,7 @@
           <t>25868-2024</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>74034</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="b">
         <v>0</v>
       </c>
@@ -2748,11 +2420,7 @@
           <t>25925-2024</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>27246</t>
-        </is>
-      </c>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="b">
         <v>0</v>
       </c>
@@ -2771,11 +2439,7 @@
           <t>25946-2024</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>19852</t>
-        </is>
-      </c>
+      <c r="C102" t="inlineStr"/>
       <c r="D102" t="b">
         <v>0</v>
       </c>
@@ -2796,7 +2460,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>78118</t>
+          <t>33654</t>
         </is>
       </c>
       <c r="D103" t="b">
@@ -2817,11 +2481,7 @@
           <t>26071-2024</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>65584</t>
-        </is>
-      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="b">
         <v>0</v>
       </c>
@@ -2840,11 +2500,7 @@
           <t>26294-2024</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>52655</t>
-        </is>
-      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="b">
         <v>0</v>
       </c>
@@ -2863,11 +2519,7 @@
           <t>26332-2024</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>85179</t>
-        </is>
-      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="b">
         <v>0</v>
       </c>
@@ -2888,7 +2540,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>99403</t>
+          <t>47738</t>
         </is>
       </c>
       <c r="D107" t="b">
@@ -2911,7 +2563,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>57483</t>
+          <t>35488</t>
         </is>
       </c>
       <c r="D108" t="b">
@@ -2932,11 +2584,7 @@
           <t>26444-2024</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>92624</t>
-        </is>
-      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="b">
         <v>0</v>
       </c>
@@ -2957,7 +2605,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>96665</t>
+          <t>84561</t>
         </is>
       </c>
       <c r="D110" t="b">
@@ -2980,7 +2628,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>63921</t>
+          <t>68813</t>
         </is>
       </c>
       <c r="D111" t="b">
@@ -3001,11 +2649,7 @@
           <t>27022-2024</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>43102</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="b">
         <v>0</v>
       </c>
@@ -3024,11 +2668,7 @@
           <t>27301-2024</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>75693</t>
-        </is>
-      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="b">
         <v>0</v>
       </c>
@@ -3047,11 +2687,7 @@
           <t>27303-2024</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>74875</t>
-        </is>
-      </c>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="b">
         <v>0</v>
       </c>
@@ -3070,11 +2706,7 @@
           <t>27320-2024</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>47950</t>
-        </is>
-      </c>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="b">
         <v>0</v>
       </c>
@@ -3095,7 +2727,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>28439</t>
+          <t>74361</t>
         </is>
       </c>
       <c r="D116" t="b">
@@ -3118,7 +2750,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>65997</t>
+          <t>50704</t>
         </is>
       </c>
       <c r="D117" t="b">
@@ -3141,7 +2773,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>65348</t>
+          <t>25850</t>
         </is>
       </c>
       <c r="D118" t="b">
@@ -3162,11 +2794,7 @@
           <t>28839-2024</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>15623</t>
-        </is>
-      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="b">
         <v>0</v>
       </c>
@@ -3187,7 +2815,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>68232</t>
+          <t>49994</t>
         </is>
       </c>
       <c r="D120" t="b">
@@ -3208,11 +2836,7 @@
           <t>28932-2024</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>50810</t>
-        </is>
-      </c>
+      <c r="C121" t="inlineStr"/>
       <c r="D121" t="b">
         <v>0</v>
       </c>
@@ -3231,11 +2855,7 @@
           <t>29207-2024</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>49212</t>
-        </is>
-      </c>
+      <c r="C122" t="inlineStr"/>
       <c r="D122" t="b">
         <v>0</v>
       </c>
@@ -3254,11 +2874,7 @@
           <t>29231-2024</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>83120</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="b">
         <v>0</v>
       </c>
@@ -3277,11 +2893,7 @@
           <t>29306-2024</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>72147</t>
-        </is>
-      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="b">
         <v>0</v>
       </c>
@@ -3300,11 +2912,7 @@
           <t>29616-2024</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>53811</t>
-        </is>
-      </c>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="b">
         <v>0</v>
       </c>
@@ -3325,7 +2933,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>60298</t>
+          <t>57164</t>
         </is>
       </c>
       <c r="D126" t="b">
@@ -3346,11 +2954,7 @@
           <t>29653-2024</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>53576</t>
-        </is>
-      </c>
+      <c r="C127" t="inlineStr"/>
       <c r="D127" t="b">
         <v>0</v>
       </c>
@@ -3369,11 +2973,7 @@
           <t>29835-2024</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>36587</t>
-        </is>
-      </c>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="b">
         <v>0</v>
       </c>
@@ -3392,11 +2992,7 @@
           <t>29870-2024</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>17604</t>
-        </is>
-      </c>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="b">
         <v>0</v>
       </c>
@@ -3417,7 +3013,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>16478</t>
+          <t>95144</t>
         </is>
       </c>
       <c r="D130" t="b">
@@ -3438,11 +3034,7 @@
           <t>30238-2024</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>13606</t>
-        </is>
-      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="b">
         <v>0</v>
       </c>
@@ -3461,11 +3053,7 @@
           <t>30249-2024</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>69586</t>
-        </is>
-      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="b">
         <v>0</v>
       </c>
@@ -3484,11 +3072,7 @@
           <t>30384-2024</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>23587</t>
-        </is>
-      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="b">
         <v>0</v>
       </c>
@@ -3532,7 +3116,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>19034</t>
+          <t>17088</t>
         </is>
       </c>
       <c r="D135" t="b">
@@ -3553,11 +3137,7 @@
           <t>30782-2024</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>86809</t>
-        </is>
-      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="b">
         <v>0</v>
       </c>
@@ -3576,11 +3156,7 @@
           <t>30925-2024</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>42810</t>
-        </is>
-      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="b">
         <v>0</v>
       </c>
@@ -3601,7 +3177,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>92027</t>
+          <t>31091</t>
         </is>
       </c>
       <c r="D138" t="b">
@@ -3624,7 +3200,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>20442</t>
+          <t>19993</t>
         </is>
       </c>
       <c r="D139" t="b">
@@ -3645,11 +3221,7 @@
           <t>31470-2024</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>33921</t>
-        </is>
-      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="b">
         <v>0</v>
       </c>
@@ -3668,11 +3240,7 @@
           <t>31620-2024</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>83229</t>
-        </is>
-      </c>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" t="b">
         <v>0</v>
       </c>
@@ -3691,11 +3259,7 @@
           <t>31680-2024</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>92721</t>
-        </is>
-      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="b">
         <v>0</v>
       </c>
@@ -3714,11 +3278,7 @@
           <t>32227-2024</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>97378</t>
-        </is>
-      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="b">
         <v>0</v>
       </c>
@@ -3737,11 +3297,7 @@
           <t>32440-2024</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>76498</t>
-        </is>
-      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="b">
         <v>0</v>
       </c>
@@ -3762,7 +3318,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>80268</t>
+          <t>46652</t>
         </is>
       </c>
       <c r="D145" t="b">
@@ -3785,7 +3341,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>67831</t>
+          <t>21298</t>
         </is>
       </c>
       <c r="D146" t="b">
@@ -3808,7 +3364,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>27638</t>
+          <t>39325</t>
         </is>
       </c>
       <c r="D147" t="b">
@@ -3829,11 +3385,7 @@
           <t>33062-2024</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>35568</t>
-        </is>
-      </c>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="b">
         <v>0</v>
       </c>
@@ -3852,11 +3404,7 @@
           <t>33069-2024</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>41770</t>
-        </is>
-      </c>
+      <c r="C149" t="inlineStr"/>
       <c r="D149" t="b">
         <v>0</v>
       </c>
@@ -3875,11 +3423,7 @@
           <t>33110-2024</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>51998</t>
-        </is>
-      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="b">
         <v>0</v>
       </c>
@@ -3900,7 +3444,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>97531</t>
+          <t>69734</t>
         </is>
       </c>
       <c r="D151" t="b">
@@ -3921,11 +3465,7 @@
           <t>33328-2024</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>14938</t>
-        </is>
-      </c>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="b">
         <v>0</v>
       </c>
@@ -3944,11 +3484,7 @@
           <t>33524-2024</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>90474</t>
-        </is>
-      </c>
+      <c r="C153" t="inlineStr"/>
       <c r="D153" t="b">
         <v>0</v>
       </c>
@@ -3969,7 +3505,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>54551</t>
+          <t>86874</t>
         </is>
       </c>
       <c r="D154" t="b">
@@ -3992,7 +3528,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>34681</t>
+          <t>66603</t>
         </is>
       </c>
       <c r="D155" t="b">
@@ -4013,11 +3549,7 @@
           <t>33833-2024</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>86076</t>
-        </is>
-      </c>
+      <c r="C156" t="inlineStr"/>
       <c r="D156" t="b">
         <v>0</v>
       </c>
@@ -4036,11 +3568,7 @@
           <t>34159-2024</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>29682</t>
-        </is>
-      </c>
+      <c r="C157" t="inlineStr"/>
       <c r="D157" t="b">
         <v>0</v>
       </c>
@@ -4059,11 +3587,7 @@
           <t>34218-2024</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>49753</t>
-        </is>
-      </c>
+      <c r="C158" t="inlineStr"/>
       <c r="D158" t="b">
         <v>0</v>
       </c>
@@ -4082,11 +3606,7 @@
           <t>34229-2024</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>51810</t>
-        </is>
-      </c>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" t="b">
         <v>0</v>
       </c>
@@ -4105,11 +3625,7 @@
           <t>34485-2024</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>91259</t>
-        </is>
-      </c>
+      <c r="C160" t="inlineStr"/>
       <c r="D160" t="b">
         <v>0</v>
       </c>
@@ -4128,11 +3644,7 @@
           <t>34630-2024</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>47958</t>
-        </is>
-      </c>
+      <c r="C161" t="inlineStr"/>
       <c r="D161" t="b">
         <v>0</v>
       </c>
@@ -4153,7 +3665,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>34447</t>
+          <t>80596</t>
         </is>
       </c>
       <c r="D162" t="b">
@@ -4174,11 +3686,7 @@
           <t>34899-2024</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>44748</t>
-        </is>
-      </c>
+      <c r="C163" t="inlineStr"/>
       <c r="D163" t="b">
         <v>0</v>
       </c>
@@ -4197,11 +3705,7 @@
           <t>35548-2024</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>37135</t>
-        </is>
-      </c>
+      <c r="C164" t="inlineStr"/>
       <c r="D164" t="b">
         <v>0</v>
       </c>
@@ -4220,11 +3724,7 @@
           <t>35809-2024</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>47436</t>
-        </is>
-      </c>
+      <c r="C165" t="inlineStr"/>
       <c r="D165" t="b">
         <v>0</v>
       </c>
@@ -4243,11 +3743,7 @@
           <t>36316-2024</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>22937</t>
-        </is>
-      </c>
+      <c r="C166" t="inlineStr"/>
       <c r="D166" t="b">
         <v>0</v>
       </c>
@@ -4266,11 +3762,7 @@
           <t>36423-2024</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>54796</t>
-        </is>
-      </c>
+      <c r="C167" t="inlineStr"/>
       <c r="D167" t="b">
         <v>0</v>
       </c>
@@ -4291,7 +3783,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>18488</t>
+          <t>27846</t>
         </is>
       </c>
       <c r="D168" t="b">
@@ -4314,7 +3806,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>78452</t>
+          <t>43724</t>
         </is>
       </c>
       <c r="D169" t="b">
@@ -4335,11 +3827,7 @@
           <t>36640-2024</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>50171</t>
-        </is>
-      </c>
+      <c r="C170" t="inlineStr"/>
       <c r="D170" t="b">
         <v>0</v>
       </c>
@@ -4358,11 +3846,7 @@
           <t>36740-2024</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>39904</t>
-        </is>
-      </c>
+      <c r="C171" t="inlineStr"/>
       <c r="D171" t="b">
         <v>0</v>
       </c>
@@ -4381,11 +3865,7 @@
           <t>36742-2024</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>85716</t>
-        </is>
-      </c>
+      <c r="C172" t="inlineStr"/>
       <c r="D172" t="b">
         <v>0</v>
       </c>
@@ -4406,7 +3886,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>77564</t>
+          <t>90180</t>
         </is>
       </c>
       <c r="D173" t="b">
@@ -4427,11 +3907,7 @@
           <t>37348-2024</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>61640</t>
-        </is>
-      </c>
+      <c r="C174" t="inlineStr"/>
       <c r="D174" t="b">
         <v>0</v>
       </c>
@@ -4450,11 +3926,7 @@
           <t>37540-2024</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>39142</t>
-        </is>
-      </c>
+      <c r="C175" t="inlineStr"/>
       <c r="D175" t="b">
         <v>0</v>
       </c>
@@ -4473,11 +3945,7 @@
           <t>37769-2024</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>43253</t>
-        </is>
-      </c>
+      <c r="C176" t="inlineStr"/>
       <c r="D176" t="b">
         <v>0</v>
       </c>
@@ -4496,11 +3964,7 @@
           <t>37943-2024</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>61289</t>
-        </is>
-      </c>
+      <c r="C177" t="inlineStr"/>
       <c r="D177" t="b">
         <v>0</v>
       </c>
@@ -4519,11 +3983,7 @@
           <t>38189-2024</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>42749</t>
-        </is>
-      </c>
+      <c r="C178" t="inlineStr"/>
       <c r="D178" t="b">
         <v>0</v>
       </c>
@@ -4542,11 +4002,7 @@
           <t>38361-2024</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>46061</t>
-        </is>
-      </c>
+      <c r="C179" t="inlineStr"/>
       <c r="D179" t="b">
         <v>0</v>
       </c>
@@ -4565,11 +4021,7 @@
           <t>38375-2024</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>78851</t>
-        </is>
-      </c>
+      <c r="C180" t="inlineStr"/>
       <c r="D180" t="b">
         <v>0</v>
       </c>
@@ -4588,11 +4040,7 @@
           <t>38675-2024</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>36147</t>
-        </is>
-      </c>
+      <c r="C181" t="inlineStr"/>
       <c r="D181" t="b">
         <v>0</v>
       </c>
@@ -4613,7 +4061,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>94840</t>
+          <t>16461</t>
         </is>
       </c>
       <c r="D182" t="b">
@@ -4636,7 +4084,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>24248</t>
+          <t>91397</t>
         </is>
       </c>
       <c r="D183" t="b">
@@ -4657,11 +4105,7 @@
           <t>39261-2024</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>53008</t>
-        </is>
-      </c>
+      <c r="C184" t="inlineStr"/>
       <c r="D184" t="b">
         <v>0</v>
       </c>
@@ -4680,11 +4124,7 @@
           <t>39512-2024</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>95328</t>
-        </is>
-      </c>
+      <c r="C185" t="inlineStr"/>
       <c r="D185" t="b">
         <v>0</v>
       </c>
@@ -4703,11 +4143,7 @@
           <t>39522-2024</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>42142</t>
-        </is>
-      </c>
+      <c r="C186" t="inlineStr"/>
       <c r="D186" t="b">
         <v>0</v>
       </c>
@@ -4726,11 +4162,7 @@
           <t>39962-2024</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>38954</t>
-        </is>
-      </c>
+      <c r="C187" t="inlineStr"/>
       <c r="D187" t="b">
         <v>0</v>
       </c>
@@ -4751,7 +4183,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>24086</t>
+          <t>28788</t>
         </is>
       </c>
       <c r="D188" t="b">
@@ -4774,7 +4206,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>89087</t>
+          <t>11249</t>
         </is>
       </c>
       <c r="D189" t="b">
@@ -4795,11 +4227,7 @@
           <t>40449-2024</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>27557</t>
-        </is>
-      </c>
+      <c r="C190" t="inlineStr"/>
       <c r="D190" t="b">
         <v>0</v>
       </c>
@@ -4818,11 +4246,7 @@
           <t>40490-2024</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>49364</t>
-        </is>
-      </c>
+      <c r="C191" t="inlineStr"/>
       <c r="D191" t="b">
         <v>0</v>
       </c>
@@ -4843,7 +4267,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>35932</t>
+          <t>20575</t>
         </is>
       </c>
       <c r="D192" t="b">
@@ -4864,11 +4288,7 @@
           <t>40576-2024</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>36121</t>
-        </is>
-      </c>
+      <c r="C193" t="inlineStr"/>
       <c r="D193" t="b">
         <v>0</v>
       </c>
@@ -4887,11 +4307,7 @@
           <t>40891-2024</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>88368</t>
-        </is>
-      </c>
+      <c r="C194" t="inlineStr"/>
       <c r="D194" t="b">
         <v>0</v>
       </c>
@@ -4910,11 +4326,7 @@
           <t>40895-2024</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>96255</t>
-        </is>
-      </c>
+      <c r="C195" t="inlineStr"/>
       <c r="D195" t="b">
         <v>0</v>
       </c>
@@ -4933,11 +4345,7 @@
           <t>41304-2024</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>61089</t>
-        </is>
-      </c>
+      <c r="C196" t="inlineStr"/>
       <c r="D196" t="b">
         <v>0</v>
       </c>
@@ -4956,11 +4364,7 @@
           <t>41448-2024</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>48941</t>
-        </is>
-      </c>
+      <c r="C197" t="inlineStr"/>
       <c r="D197" t="b">
         <v>0</v>
       </c>
@@ -4979,11 +4383,7 @@
           <t>41678-2024</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>21843</t>
-        </is>
-      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="b">
         <v>0</v>
       </c>
@@ -5002,11 +4402,7 @@
           <t>41768-2024</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>82441</t>
-        </is>
-      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="b">
         <v>0</v>
       </c>
@@ -5025,11 +4421,7 @@
           <t>41824-2024</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>51891</t>
-        </is>
-      </c>
+      <c r="C200" t="inlineStr"/>
       <c r="D200" t="b">
         <v>0</v>
       </c>
@@ -5048,11 +4440,7 @@
           <t>41971-2024</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>40939</t>
-        </is>
-      </c>
+      <c r="C201" t="inlineStr"/>
       <c r="D201" t="b">
         <v>0</v>
       </c>
@@ -5071,11 +4459,7 @@
           <t>42091-2024</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>16027</t>
-        </is>
-      </c>
+      <c r="C202" t="inlineStr"/>
       <c r="D202" t="b">
         <v>0</v>
       </c>
@@ -5094,11 +4478,7 @@
           <t>42637-2024</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>86566</t>
-        </is>
-      </c>
+      <c r="C203" t="inlineStr"/>
       <c r="D203" t="b">
         <v>0</v>
       </c>
@@ -5117,11 +4497,7 @@
           <t>42934-2024</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>86360</t>
-        </is>
-      </c>
+      <c r="C204" t="inlineStr"/>
       <c r="D204" t="b">
         <v>0</v>
       </c>
@@ -5140,11 +4516,7 @@
           <t>43438-2024</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>73943</t>
-        </is>
-      </c>
+      <c r="C205" t="inlineStr"/>
       <c r="D205" t="b">
         <v>0</v>
       </c>
@@ -5163,11 +4535,7 @@
           <t>43450-2024</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>77055</t>
-        </is>
-      </c>
+      <c r="C206" t="inlineStr"/>
       <c r="D206" t="b">
         <v>0</v>
       </c>
@@ -5186,11 +4554,7 @@
           <t>43510-2024</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>55479</t>
-        </is>
-      </c>
+      <c r="C207" t="inlineStr"/>
       <c r="D207" t="b">
         <v>0</v>
       </c>
@@ -5211,7 +4575,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>66715</t>
+          <t>74311</t>
         </is>
       </c>
       <c r="D208" t="b">
@@ -5232,11 +4596,7 @@
           <t>43829-2024</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>99520</t>
-        </is>
-      </c>
+      <c r="C209" t="inlineStr"/>
       <c r="D209" t="b">
         <v>0</v>
       </c>
@@ -5255,11 +4615,7 @@
           <t>43967-2024</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>39693</t>
-        </is>
-      </c>
+      <c r="C210" t="inlineStr"/>
       <c r="D210" t="b">
         <v>0</v>
       </c>
@@ -5278,11 +4634,7 @@
           <t>44188-2024</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>24898</t>
-        </is>
-      </c>
+      <c r="C211" t="inlineStr"/>
       <c r="D211" t="b">
         <v>0</v>
       </c>
@@ -5303,7 +4655,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>80008</t>
+          <t>81889</t>
         </is>
       </c>
       <c r="D212" t="b">
@@ -5324,11 +4676,7 @@
           <t>44267-2024</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>50965</t>
-        </is>
-      </c>
+      <c r="C213" t="inlineStr"/>
       <c r="D213" t="b">
         <v>0</v>
       </c>
@@ -5347,11 +4695,7 @@
           <t>44370-2024</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>54071</t>
-        </is>
-      </c>
+      <c r="C214" t="inlineStr"/>
       <c r="D214" t="b">
         <v>0</v>
       </c>
@@ -5372,7 +4716,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>52499</t>
+          <t>29267</t>
         </is>
       </c>
       <c r="D215" t="b">
@@ -5393,11 +4737,7 @@
           <t>44639-2024</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>54733</t>
-        </is>
-      </c>
+      <c r="C216" t="inlineStr"/>
       <c r="D216" t="b">
         <v>0</v>
       </c>
@@ -5416,11 +4756,7 @@
           <t>44647-2024</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>75030</t>
-        </is>
-      </c>
+      <c r="C217" t="inlineStr"/>
       <c r="D217" t="b">
         <v>0</v>
       </c>
@@ -5439,11 +4775,7 @@
           <t>44751-2024</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>62654</t>
-        </is>
-      </c>
+      <c r="C218" t="inlineStr"/>
       <c r="D218" t="b">
         <v>0</v>
       </c>
@@ -5462,11 +4794,7 @@
           <t>44767-2024</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>78563</t>
-        </is>
-      </c>
+      <c r="C219" t="inlineStr"/>
       <c r="D219" t="b">
         <v>0</v>
       </c>
@@ -5485,11 +4813,7 @@
           <t>44912-2024</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>19747</t>
-        </is>
-      </c>
+      <c r="C220" t="inlineStr"/>
       <c r="D220" t="b">
         <v>0</v>
       </c>
@@ -5510,7 +4834,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>93573</t>
+          <t>91945</t>
         </is>
       </c>
       <c r="D221" t="b">
@@ -5531,11 +4855,7 @@
           <t>45421-2024</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>19016</t>
-        </is>
-      </c>
+      <c r="C222" t="inlineStr"/>
       <c r="D222" t="b">
         <v>0</v>
       </c>
@@ -5554,11 +4874,7 @@
           <t>45747-2024</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>22805</t>
-        </is>
-      </c>
+      <c r="C223" t="inlineStr"/>
       <c r="D223" t="b">
         <v>0</v>
       </c>
@@ -5577,11 +4893,7 @@
           <t>45820-2024</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>89146</t>
-        </is>
-      </c>
+      <c r="C224" t="inlineStr"/>
       <c r="D224" t="b">
         <v>0</v>
       </c>
@@ -5600,11 +4912,7 @@
           <t>46034-2024</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>58757</t>
-        </is>
-      </c>
+      <c r="C225" t="inlineStr"/>
       <c r="D225" t="b">
         <v>0</v>
       </c>
@@ -5623,11 +4931,7 @@
           <t>46035-2024</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>34125</t>
-        </is>
-      </c>
+      <c r="C226" t="inlineStr"/>
       <c r="D226" t="b">
         <v>0</v>
       </c>
@@ -5646,11 +4950,7 @@
           <t>46498-2024</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>57812</t>
-        </is>
-      </c>
+      <c r="C227" t="inlineStr"/>
       <c r="D227" t="b">
         <v>0</v>
       </c>
@@ -5669,11 +4969,7 @@
           <t>47023-2024</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>40483</t>
-        </is>
-      </c>
+      <c r="C228" t="inlineStr"/>
       <c r="D228" t="b">
         <v>0</v>
       </c>
@@ -5692,11 +4988,7 @@
           <t>47238-2024</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>51052</t>
-        </is>
-      </c>
+      <c r="C229" t="inlineStr"/>
       <c r="D229" t="b">
         <v>0</v>
       </c>
@@ -5715,11 +5007,7 @@
           <t>47561-2024</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>82731</t>
-        </is>
-      </c>
+      <c r="C230" t="inlineStr"/>
       <c r="D230" t="b">
         <v>0</v>
       </c>
@@ -5738,11 +5026,7 @@
           <t>47986-2024</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>10516</t>
-        </is>
-      </c>
+      <c r="C231" t="inlineStr"/>
       <c r="D231" t="b">
         <v>0</v>
       </c>
@@ -5761,11 +5045,7 @@
           <t>48117-2024</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>56936</t>
-        </is>
-      </c>
+      <c r="C232" t="inlineStr"/>
       <c r="D232" t="b">
         <v>0</v>
       </c>
@@ -5784,11 +5064,7 @@
           <t>48229-2024</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>19994</t>
-        </is>
-      </c>
+      <c r="C233" t="inlineStr"/>
       <c r="D233" t="b">
         <v>0</v>
       </c>
@@ -5807,11 +5083,7 @@
           <t>48729-2024</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>32915</t>
-        </is>
-      </c>
+      <c r="C234" t="inlineStr"/>
       <c r="D234" t="b">
         <v>0</v>
       </c>
@@ -5830,11 +5102,7 @@
           <t>49432-2024</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>47360</t>
-        </is>
-      </c>
+      <c r="C235" t="inlineStr"/>
       <c r="D235" t="b">
         <v>0</v>
       </c>
@@ -5853,11 +5121,7 @@
           <t>49495-2024</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>89137</t>
-        </is>
-      </c>
+      <c r="C236" t="inlineStr"/>
       <c r="D236" t="b">
         <v>0</v>
       </c>
@@ -5876,11 +5140,7 @@
           <t>49611-2024</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>90310</t>
-        </is>
-      </c>
+      <c r="C237" t="inlineStr"/>
       <c r="D237" t="b">
         <v>0</v>
       </c>
@@ -5899,11 +5159,7 @@
           <t>50175-2024</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>52921</t>
-        </is>
-      </c>
+      <c r="C238" t="inlineStr"/>
       <c r="D238" t="b">
         <v>0</v>
       </c>
@@ -5922,11 +5178,7 @@
           <t>50272-2024</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>17812</t>
-        </is>
-      </c>
+      <c r="C239" t="inlineStr"/>
       <c r="D239" t="b">
         <v>0</v>
       </c>
@@ -5945,11 +5197,7 @@
           <t>50310-2024</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>23629</t>
-        </is>
-      </c>
+      <c r="C240" t="inlineStr"/>
       <c r="D240" t="b">
         <v>0</v>
       </c>
@@ -5968,11 +5216,7 @@
           <t>50598-2024</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>64460</t>
-        </is>
-      </c>
+      <c r="C241" t="inlineStr"/>
       <c r="D241" t="b">
         <v>0</v>
       </c>
@@ -5991,11 +5235,7 @@
           <t>50612-2024</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>48464</t>
-        </is>
-      </c>
+      <c r="C242" t="inlineStr"/>
       <c r="D242" t="b">
         <v>0</v>
       </c>
@@ -6014,11 +5254,7 @@
           <t>50702-2024</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>96515</t>
-        </is>
-      </c>
+      <c r="C243" t="inlineStr"/>
       <c r="D243" t="b">
         <v>0</v>
       </c>
@@ -6037,11 +5273,7 @@
           <t>51054-2024</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>31431</t>
-        </is>
-      </c>
+      <c r="C244" t="inlineStr"/>
       <c r="D244" t="b">
         <v>0</v>
       </c>
@@ -6060,11 +5292,7 @@
           <t>51160-2024</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>45856</t>
-        </is>
-      </c>
+      <c r="C245" t="inlineStr"/>
       <c r="D245" t="b">
         <v>0</v>
       </c>
@@ -6085,7 +5313,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>65224</t>
+          <t>25657</t>
         </is>
       </c>
       <c r="D246" t="b">
@@ -6106,11 +5334,7 @@
           <t>51628-2024</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>37890</t>
-        </is>
-      </c>
+      <c r="C247" t="inlineStr"/>
       <c r="D247" t="b">
         <v>0</v>
       </c>
@@ -6129,11 +5353,7 @@
           <t>51710-2024</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>65440</t>
-        </is>
-      </c>
+      <c r="C248" t="inlineStr"/>
       <c r="D248" t="b">
         <v>0</v>
       </c>
@@ -6152,11 +5372,7 @@
           <t>51813-2024</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>90130</t>
-        </is>
-      </c>
+      <c r="C249" t="inlineStr"/>
       <c r="D249" t="b">
         <v>0</v>
       </c>
@@ -6177,7 +5393,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>48279</t>
+          <t>27498</t>
         </is>
       </c>
       <c r="D250" t="b">
@@ -6198,11 +5414,7 @@
           <t>52046-2024</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>28037</t>
-        </is>
-      </c>
+      <c r="C251" t="inlineStr"/>
       <c r="D251" t="b">
         <v>0</v>
       </c>
@@ -6221,11 +5433,7 @@
           <t>52210-2024</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>14956</t>
-        </is>
-      </c>
+      <c r="C252" t="inlineStr"/>
       <c r="D252" t="b">
         <v>0</v>
       </c>
@@ -6244,11 +5452,7 @@
           <t>52225-2024</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>77273</t>
-        </is>
-      </c>
+      <c r="C253" t="inlineStr"/>
       <c r="D253" t="b">
         <v>0</v>
       </c>
@@ -6267,11 +5471,7 @@
           <t>52271-2024</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>76167</t>
-        </is>
-      </c>
+      <c r="C254" t="inlineStr"/>
       <c r="D254" t="b">
         <v>0</v>
       </c>
@@ -6290,11 +5490,7 @@
           <t>52354-2024</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>48468</t>
-        </is>
-      </c>
+      <c r="C255" t="inlineStr"/>
       <c r="D255" t="b">
         <v>0</v>
       </c>
@@ -6315,7 +5511,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>86263</t>
+          <t>23191</t>
         </is>
       </c>
       <c r="D256" t="b">
@@ -6338,7 +5534,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>80011</t>
+          <t>78180</t>
         </is>
       </c>
       <c r="D257" t="b">
@@ -6361,7 +5557,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>12849</t>
+          <t>40525</t>
         </is>
       </c>
       <c r="D258" t="b">
@@ -6384,7 +5580,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>78527</t>
+          <t>26737</t>
         </is>
       </c>
       <c r="D259" t="b">
@@ -6405,11 +5601,7 @@
           <t>52826-2024</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>41817</t>
-        </is>
-      </c>
+      <c r="C260" t="inlineStr"/>
       <c r="D260" t="b">
         <v>0</v>
       </c>
@@ -6430,7 +5622,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>57657</t>
+          <t>13416</t>
         </is>
       </c>
       <c r="D261" t="b">
@@ -6451,11 +5643,7 @@
           <t>52987-2024</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>93061</t>
-        </is>
-      </c>
+      <c r="C262" t="inlineStr"/>
       <c r="D262" t="b">
         <v>0</v>
       </c>
@@ -6474,11 +5662,7 @@
           <t>53239-2024</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>89506</t>
-        </is>
-      </c>
+      <c r="C263" t="inlineStr"/>
       <c r="D263" t="b">
         <v>0</v>
       </c>
@@ -6499,7 +5683,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>62097</t>
+          <t>10076</t>
         </is>
       </c>
       <c r="D264" t="b">
@@ -6522,7 +5706,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>71232</t>
+          <t>75754</t>
         </is>
       </c>
       <c r="D265" t="b">
@@ -6543,11 +5727,7 @@
           <t>53410-2024</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>64736</t>
-        </is>
-      </c>
+      <c r="C266" t="inlineStr"/>
       <c r="D266" t="b">
         <v>0</v>
       </c>
@@ -6566,11 +5746,7 @@
           <t>53438-2024</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>91719</t>
-        </is>
-      </c>
+      <c r="C267" t="inlineStr"/>
       <c r="D267" t="b">
         <v>0</v>
       </c>
@@ -6589,11 +5765,7 @@
           <t>53981-2024</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>44985</t>
-        </is>
-      </c>
+      <c r="C268" t="inlineStr"/>
       <c r="D268" t="b">
         <v>0</v>
       </c>
@@ -6612,11 +5784,7 @@
           <t>54362-2024</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>68868</t>
-        </is>
-      </c>
+      <c r="C269" t="inlineStr"/>
       <c r="D269" t="b">
         <v>0</v>
       </c>
@@ -6635,11 +5803,7 @@
           <t>54501-2024</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>48467</t>
-        </is>
-      </c>
+      <c r="C270" t="inlineStr"/>
       <c r="D270" t="b">
         <v>0</v>
       </c>
@@ -6658,11 +5822,7 @@
           <t>54571-2024</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>81372</t>
-        </is>
-      </c>
+      <c r="C271" t="inlineStr"/>
       <c r="D271" t="b">
         <v>0</v>
       </c>
@@ -6681,11 +5841,7 @@
           <t>54699-2024</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>79715</t>
-        </is>
-      </c>
+      <c r="C272" t="inlineStr"/>
       <c r="D272" t="b">
         <v>0</v>
       </c>
@@ -6704,11 +5860,7 @@
           <t>54736-2024</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>12830</t>
-        </is>
-      </c>
+      <c r="C273" t="inlineStr"/>
       <c r="D273" t="b">
         <v>0</v>
       </c>
@@ -6727,11 +5879,7 @@
           <t>54822-2024</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>89343</t>
-        </is>
-      </c>
+      <c r="C274" t="inlineStr"/>
       <c r="D274" t="b">
         <v>0</v>
       </c>
@@ -6750,11 +5898,7 @@
           <t>55022-2024</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>49676</t>
-        </is>
-      </c>
+      <c r="C275" t="inlineStr"/>
       <c r="D275" t="b">
         <v>0</v>
       </c>
@@ -6775,7 +5919,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>75272</t>
+          <t>23102</t>
         </is>
       </c>
       <c r="D276" t="b">
@@ -6796,11 +5940,7 @@
           <t>55414-2024</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>60721</t>
-        </is>
-      </c>
+      <c r="C277" t="inlineStr"/>
       <c r="D277" t="b">
         <v>0</v>
       </c>
@@ -6819,11 +5959,7 @@
           <t>55751-2024</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>24130</t>
-        </is>
-      </c>
+      <c r="C278" t="inlineStr"/>
       <c r="D278" t="b">
         <v>0</v>
       </c>
@@ -6844,7 +5980,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>57270</t>
+          <t>87360</t>
         </is>
       </c>
       <c r="D279" t="b">
@@ -6867,7 +6003,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>97535</t>
+          <t>64591</t>
         </is>
       </c>
       <c r="D280" t="b">
@@ -6888,11 +6024,7 @@
           <t>55910-2024</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>56327</t>
-        </is>
-      </c>
+      <c r="C281" t="inlineStr"/>
       <c r="D281" t="b">
         <v>0</v>
       </c>
@@ -6911,11 +6043,7 @@
           <t>56228-2024</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>67776</t>
-        </is>
-      </c>
+      <c r="C282" t="inlineStr"/>
       <c r="D282" t="b">
         <v>0</v>
       </c>
@@ -6934,11 +6062,7 @@
           <t>56279-2024</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>55149</t>
-        </is>
-      </c>
+      <c r="C283" t="inlineStr"/>
       <c r="D283" t="b">
         <v>0</v>
       </c>
@@ -6957,11 +6081,7 @@
           <t>56423-2024</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>32091</t>
-        </is>
-      </c>
+      <c r="C284" t="inlineStr"/>
       <c r="D284" t="b">
         <v>0</v>
       </c>
@@ -6982,7 +6102,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>58730</t>
+          <t>13934</t>
         </is>
       </c>
       <c r="D285" t="b">
@@ -7005,7 +6125,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>11401</t>
+          <t>32473</t>
         </is>
       </c>
       <c r="D286" t="b">
@@ -7028,7 +6148,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>94169</t>
+          <t>36977</t>
         </is>
       </c>
       <c r="D287" t="b">
@@ -7049,11 +6169,7 @@
           <t>56815-2024</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>80859</t>
-        </is>
-      </c>
+      <c r="C288" t="inlineStr"/>
       <c r="D288" t="b">
         <v>0</v>
       </c>
@@ -7074,7 +6190,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>92330</t>
+          <t>16646</t>
         </is>
       </c>
       <c r="D289" t="b">
@@ -7095,11 +6211,7 @@
           <t>57297-2024</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>27283</t>
-        </is>
-      </c>
+      <c r="C290" t="inlineStr"/>
       <c r="D290" t="b">
         <v>0</v>
       </c>
@@ -7120,7 +6232,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>36094</t>
+          <t>94244</t>
         </is>
       </c>
       <c r="D291" t="b">
@@ -7141,11 +6253,7 @@
           <t>57705-2024</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>29100</t>
-        </is>
-      </c>
+      <c r="C292" t="inlineStr"/>
       <c r="D292" t="b">
         <v>0</v>
       </c>
@@ -7164,11 +6272,7 @@
           <t>57747-2024</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>95536</t>
-        </is>
-      </c>
+      <c r="C293" t="inlineStr"/>
       <c r="D293" t="b">
         <v>0</v>
       </c>
@@ -7187,11 +6291,7 @@
           <t>58027-2024</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>43189</t>
-        </is>
-      </c>
+      <c r="C294" t="inlineStr"/>
       <c r="D294" t="b">
         <v>0</v>
       </c>
@@ -7210,11 +6310,7 @@
           <t>58106-2024</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>97308</t>
-        </is>
-      </c>
+      <c r="C295" t="inlineStr"/>
       <c r="D295" t="b">
         <v>0</v>
       </c>
@@ -7233,11 +6329,7 @@
           <t>58202-2024</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>17713</t>
-        </is>
-      </c>
+      <c r="C296" t="inlineStr"/>
       <c r="D296" t="b">
         <v>0</v>
       </c>
@@ -7256,11 +6348,7 @@
           <t>58228-2024</t>
         </is>
       </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>41152</t>
-        </is>
-      </c>
+      <c r="C297" t="inlineStr"/>
       <c r="D297" t="b">
         <v>0</v>
       </c>
@@ -7279,11 +6367,7 @@
           <t>58287-2024</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>53328</t>
-        </is>
-      </c>
+      <c r="C298" t="inlineStr"/>
       <c r="D298" t="b">
         <v>0</v>
       </c>
@@ -7304,7 +6388,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>90246</t>
+          <t>39169</t>
         </is>
       </c>
       <c r="D299" t="b">
@@ -7325,11 +6409,7 @@
           <t>58305-2024</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>89878</t>
-        </is>
-      </c>
+      <c r="C300" t="inlineStr"/>
       <c r="D300" t="b">
         <v>0</v>
       </c>
@@ -7348,11 +6428,7 @@
           <t>58324-2024</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>13775</t>
-        </is>
-      </c>
+      <c r="C301" t="inlineStr"/>
       <c r="D301" t="b">
         <v>0</v>
       </c>
@@ -7371,11 +6447,7 @@
           <t>58656-2024</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>31948</t>
-        </is>
-      </c>
+      <c r="C302" t="inlineStr"/>
       <c r="D302" t="b">
         <v>0</v>
       </c>
@@ -7396,7 +6468,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>75865</t>
+          <t>73840</t>
         </is>
       </c>
       <c r="D303" t="b">
@@ -7419,7 +6491,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>31784</t>
+          <t>46472</t>
         </is>
       </c>
       <c r="D304" t="b">
@@ -7440,11 +6512,7 @@
           <t>58898-2024</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>62208</t>
-        </is>
-      </c>
+      <c r="C305" t="inlineStr"/>
       <c r="D305" t="b">
         <v>0</v>
       </c>
@@ -7463,11 +6531,7 @@
           <t>58920-2024</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>65531</t>
-        </is>
-      </c>
+      <c r="C306" t="inlineStr"/>
       <c r="D306" t="b">
         <v>0</v>
       </c>
@@ -7486,11 +6550,7 @@
           <t>58960-2024</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>23936</t>
-        </is>
-      </c>
+      <c r="C307" t="inlineStr"/>
       <c r="D307" t="b">
         <v>0</v>
       </c>
@@ -7509,11 +6569,7 @@
           <t>59025-2024</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>36167</t>
-        </is>
-      </c>
+      <c r="C308" t="inlineStr"/>
       <c r="D308" t="b">
         <v>0</v>
       </c>
@@ -7532,11 +6588,7 @@
           <t>59152-2024</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>73376</t>
-        </is>
-      </c>
+      <c r="C309" t="inlineStr"/>
       <c r="D309" t="b">
         <v>0</v>
       </c>
@@ -7555,11 +6607,7 @@
           <t>59377-2024</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>70611</t>
-        </is>
-      </c>
+      <c r="C310" t="inlineStr"/>
       <c r="D310" t="b">
         <v>0</v>
       </c>
@@ -7580,7 +6628,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>66675</t>
+          <t>55377</t>
         </is>
       </c>
       <c r="D311" t="b">
@@ -7601,11 +6649,7 @@
           <t>59997-2024</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>20651</t>
-        </is>
-      </c>
+      <c r="C312" t="inlineStr"/>
       <c r="D312" t="b">
         <v>0</v>
       </c>
@@ -7624,11 +6668,7 @@
           <t>60226-2024</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>66733</t>
-        </is>
-      </c>
+      <c r="C313" t="inlineStr"/>
       <c r="D313" t="b">
         <v>0</v>
       </c>
@@ -7647,11 +6687,7 @@
           <t>60442-2024</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>18272</t>
-        </is>
-      </c>
+      <c r="C314" t="inlineStr"/>
       <c r="D314" t="b">
         <v>0</v>
       </c>
@@ -7670,11 +6706,7 @@
           <t>60595-2024</t>
         </is>
       </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>59823</t>
-        </is>
-      </c>
+      <c r="C315" t="inlineStr"/>
       <c r="D315" t="b">
         <v>0</v>
       </c>
@@ -7693,11 +6725,7 @@
           <t>60723-2024</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>29951</t>
-        </is>
-      </c>
+      <c r="C316" t="inlineStr"/>
       <c r="D316" t="b">
         <v>0</v>
       </c>
@@ -7716,11 +6744,7 @@
           <t>60869-2024</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>44716</t>
-        </is>
-      </c>
+      <c r="C317" t="inlineStr"/>
       <c r="D317" t="b">
         <v>0</v>
       </c>
@@ -7739,11 +6763,7 @@
           <t>61049-2024</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>65600</t>
-        </is>
-      </c>
+      <c r="C318" t="inlineStr"/>
       <c r="D318" t="b">
         <v>0</v>
       </c>
@@ -7785,11 +6805,7 @@
           <t>61142-2024</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>28532</t>
-        </is>
-      </c>
+      <c r="C320" t="inlineStr"/>
       <c r="D320" t="b">
         <v>0</v>
       </c>
@@ -7810,7 +6826,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>18085</t>
+          <t>96401</t>
         </is>
       </c>
       <c r="D321" t="b">
@@ -7833,7 +6849,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>90703</t>
+          <t>66601</t>
         </is>
       </c>
       <c r="D322" t="b">
@@ -7854,11 +6870,7 @@
           <t>61918-2024</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>24226</t>
-        </is>
-      </c>
+      <c r="C323" t="inlineStr"/>
       <c r="D323" t="b">
         <v>0</v>
       </c>
@@ -7877,11 +6889,7 @@
           <t>62028-2024</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>74538</t>
-        </is>
-      </c>
+      <c r="C324" t="inlineStr"/>
       <c r="D324" t="b">
         <v>0</v>
       </c>
@@ -7902,7 +6910,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>70335</t>
+          <t>84700</t>
         </is>
       </c>
       <c r="D325" t="b">
@@ -7923,11 +6931,7 @@
           <t>62389-2024</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>53010</t>
-        </is>
-      </c>
+      <c r="C326" t="inlineStr"/>
       <c r="D326" t="b">
         <v>0</v>
       </c>
@@ -7946,11 +6950,7 @@
           <t>62975-2024</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>19455</t>
-        </is>
-      </c>
+      <c r="C327" t="inlineStr"/>
       <c r="D327" t="b">
         <v>0</v>
       </c>
@@ -7969,11 +6969,7 @@
           <t>63184-2024</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>39837</t>
-        </is>
-      </c>
+      <c r="C328" t="inlineStr"/>
       <c r="D328" t="b">
         <v>0</v>
       </c>
@@ -7992,11 +6988,7 @@
           <t>63233-2024</t>
         </is>
       </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>11965</t>
-        </is>
-      </c>
+      <c r="C329" t="inlineStr"/>
       <c r="D329" t="b">
         <v>0</v>
       </c>
@@ -8015,11 +7007,7 @@
           <t>63328-2024</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>70452</t>
-        </is>
-      </c>
+      <c r="C330" t="inlineStr"/>
       <c r="D330" t="b">
         <v>0</v>
       </c>
@@ -8038,11 +7026,7 @@
           <t>63451-2024</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>70636</t>
-        </is>
-      </c>
+      <c r="C331" t="inlineStr"/>
       <c r="D331" t="b">
         <v>0</v>
       </c>
@@ -8063,7 +7047,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>45293</t>
+          <t>90392</t>
         </is>
       </c>
       <c r="D332" t="b">
@@ -8084,11 +7068,7 @@
           <t>64017-2024</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>43107</t>
-        </is>
-      </c>
+      <c r="C333" t="inlineStr"/>
       <c r="D333" t="b">
         <v>0</v>
       </c>
@@ -8107,11 +7087,7 @@
           <t>64035-2024</t>
         </is>
       </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>55522</t>
-        </is>
-      </c>
+      <c r="C334" t="inlineStr"/>
       <c r="D334" t="b">
         <v>0</v>
       </c>
@@ -8130,11 +7106,7 @@
           <t>64096-2024</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>51403</t>
-        </is>
-      </c>
+      <c r="C335" t="inlineStr"/>
       <c r="D335" t="b">
         <v>0</v>
       </c>
@@ -8153,11 +7125,7 @@
           <t>64165-2024</t>
         </is>
       </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>38517</t>
-        </is>
-      </c>
+      <c r="C336" t="inlineStr"/>
       <c r="D336" t="b">
         <v>0</v>
       </c>
@@ -8176,11 +7144,7 @@
           <t>64168-2024</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>52958</t>
-        </is>
-      </c>
+      <c r="C337" t="inlineStr"/>
       <c r="D337" t="b">
         <v>0</v>
       </c>
@@ -8199,11 +7163,7 @@
           <t>64450-2024</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>58957</t>
-        </is>
-      </c>
+      <c r="C338" t="inlineStr"/>
       <c r="D338" t="b">
         <v>0</v>
       </c>
@@ -8224,7 +7184,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>20874</t>
+          <t>29915</t>
         </is>
       </c>
       <c r="D339" t="b">
@@ -8245,11 +7205,7 @@
           <t>64849-2024</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>88307</t>
-        </is>
-      </c>
+      <c r="C340" t="inlineStr"/>
       <c r="D340" t="b">
         <v>0</v>
       </c>
@@ -8268,11 +7224,7 @@
           <t>64952-2024</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>85385</t>
-        </is>
-      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="b">
         <v>0</v>
       </c>
@@ -8291,11 +7243,7 @@
           <t>65158-2024</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>25124</t>
-        </is>
-      </c>
+      <c r="C342" t="inlineStr"/>
       <c r="D342" t="b">
         <v>0</v>
       </c>
@@ -8314,11 +7262,7 @@
           <t>65161-2024</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>16200</t>
-        </is>
-      </c>
+      <c r="C343" t="inlineStr"/>
       <c r="D343" t="b">
         <v>0</v>
       </c>
@@ -8337,11 +7281,7 @@
           <t>65248-2024</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>63993</t>
-        </is>
-      </c>
+      <c r="C344" t="inlineStr"/>
       <c r="D344" t="b">
         <v>0</v>
       </c>
@@ -8360,11 +7300,7 @@
           <t>65312-2024</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>97111</t>
-        </is>
-      </c>
+      <c r="C345" t="inlineStr"/>
       <c r="D345" t="b">
         <v>0</v>
       </c>
@@ -8385,7 +7321,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>48124</t>
+          <t>80327</t>
         </is>
       </c>
       <c r="D346" t="b">
@@ -8406,11 +7342,7 @@
           <t>65623-2024</t>
         </is>
       </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>31895</t>
-        </is>
-      </c>
+      <c r="C347" t="inlineStr"/>
       <c r="D347" t="b">
         <v>0</v>
       </c>
@@ -8429,11 +7361,7 @@
           <t>66195-2024</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>45811</t>
-        </is>
-      </c>
+      <c r="C348" t="inlineStr"/>
       <c r="D348" t="b">
         <v>0</v>
       </c>
@@ -8452,11 +7380,7 @@
           <t>66348-2024</t>
         </is>
       </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>37064</t>
-        </is>
-      </c>
+      <c r="C349" t="inlineStr"/>
       <c r="D349" t="b">
         <v>0</v>
       </c>
@@ -8475,11 +7399,7 @@
           <t>66790-2024</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>29719</t>
-        </is>
-      </c>
+      <c r="C350" t="inlineStr"/>
       <c r="D350" t="b">
         <v>0</v>
       </c>
@@ -8498,11 +7418,7 @@
           <t>67113-2024</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>89707</t>
-        </is>
-      </c>
+      <c r="C351" t="inlineStr"/>
       <c r="D351" t="b">
         <v>0</v>
       </c>
@@ -8521,11 +7437,7 @@
           <t>67177-2024</t>
         </is>
       </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>23716</t>
-        </is>
-      </c>
+      <c r="C352" t="inlineStr"/>
       <c r="D352" t="b">
         <v>0</v>
       </c>
@@ -8544,11 +7456,7 @@
           <t>67362-2024</t>
         </is>
       </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>42555</t>
-        </is>
-      </c>
+      <c r="C353" t="inlineStr"/>
       <c r="D353" t="b">
         <v>0</v>
       </c>
@@ -8567,11 +7475,7 @@
           <t>67512-2024</t>
         </is>
       </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>26575</t>
-        </is>
-      </c>
+      <c r="C354" t="inlineStr"/>
       <c r="D354" t="b">
         <v>0</v>
       </c>
@@ -8590,11 +7494,7 @@
           <t>67621-2024</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>26734</t>
-        </is>
-      </c>
+      <c r="C355" t="inlineStr"/>
       <c r="D355" t="b">
         <v>0</v>
       </c>
@@ -8613,11 +7513,7 @@
           <t>67705-2024</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>34559</t>
-        </is>
-      </c>
+      <c r="C356" t="inlineStr"/>
       <c r="D356" t="b">
         <v>0</v>
       </c>
@@ -8636,11 +7532,7 @@
           <t>68113-2024</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>62553</t>
-        </is>
-      </c>
+      <c r="C357" t="inlineStr"/>
       <c r="D357" t="b">
         <v>0</v>
       </c>
@@ -8659,11 +7551,7 @@
           <t>68146-2024</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>31988</t>
-        </is>
-      </c>
+      <c r="C358" t="inlineStr"/>
       <c r="D358" t="b">
         <v>0</v>
       </c>
@@ -8682,11 +7570,7 @@
           <t>68270-2024</t>
         </is>
       </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>41648</t>
-        </is>
-      </c>
+      <c r="C359" t="inlineStr"/>
       <c r="D359" t="b">
         <v>0</v>
       </c>
@@ -8707,7 +7591,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>52263</t>
+          <t>37964</t>
         </is>
       </c>
       <c r="D360" t="b">
@@ -8728,11 +7612,7 @@
           <t>68400-2024</t>
         </is>
       </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>37730</t>
-        </is>
-      </c>
+      <c r="C361" t="inlineStr"/>
       <c r="D361" t="b">
         <v>0</v>
       </c>
@@ -8751,11 +7631,7 @@
           <t>68554-2024</t>
         </is>
       </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>16355</t>
-        </is>
-      </c>
+      <c r="C362" t="inlineStr"/>
       <c r="D362" t="b">
         <v>0</v>
       </c>
@@ -8774,11 +7650,7 @@
           <t>68873-2024</t>
         </is>
       </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>26736</t>
-        </is>
-      </c>
+      <c r="C363" t="inlineStr"/>
       <c r="D363" t="b">
         <v>0</v>
       </c>
@@ -8797,11 +7669,7 @@
           <t>68875-2024</t>
         </is>
       </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>73201</t>
-        </is>
-      </c>
+      <c r="C364" t="inlineStr"/>
       <c r="D364" t="b">
         <v>0</v>
       </c>
@@ -8820,11 +7688,7 @@
           <t>69061-2024</t>
         </is>
       </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>93847</t>
-        </is>
-      </c>
+      <c r="C365" t="inlineStr"/>
       <c r="D365" t="b">
         <v>0</v>
       </c>
@@ -8845,7 +7709,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>80403</t>
+          <t>55150</t>
         </is>
       </c>
       <c r="D366" t="b">
@@ -8866,11 +7730,7 @@
           <t>70205-2024</t>
         </is>
       </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>18706</t>
-        </is>
-      </c>
+      <c r="C367" t="inlineStr"/>
       <c r="D367" t="b">
         <v>0</v>
       </c>
@@ -8889,11 +7749,7 @@
           <t>70233-2024</t>
         </is>
       </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>58358</t>
-        </is>
-      </c>
+      <c r="C368" t="inlineStr"/>
       <c r="D368" t="b">
         <v>0</v>
       </c>
@@ -8914,7 +7770,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>76395</t>
+          <t>78289</t>
         </is>
       </c>
       <c r="D369" t="b">
@@ -8935,11 +7791,7 @@
           <t>70359-2024</t>
         </is>
       </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>93961</t>
-        </is>
-      </c>
+      <c r="C370" t="inlineStr"/>
       <c r="D370" t="b">
         <v>0</v>
       </c>
@@ -8958,11 +7810,7 @@
           <t>70406-2024</t>
         </is>
       </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>19257</t>
-        </is>
-      </c>
+      <c r="C371" t="inlineStr"/>
       <c r="D371" t="b">
         <v>0</v>
       </c>
@@ -8981,11 +7829,7 @@
           <t>70495-2024</t>
         </is>
       </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>26593</t>
-        </is>
-      </c>
+      <c r="C372" t="inlineStr"/>
       <c r="D372" t="b">
         <v>0</v>
       </c>
@@ -9006,7 +7850,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>91427</t>
+          <t>26954</t>
         </is>
       </c>
       <c r="D373" t="b">
@@ -9027,11 +7871,7 @@
           <t>70807-2024</t>
         </is>
       </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>55822</t>
-        </is>
-      </c>
+      <c r="C374" t="inlineStr"/>
       <c r="D374" t="b">
         <v>0</v>
       </c>
@@ -9050,11 +7890,7 @@
           <t>71021-2024</t>
         </is>
       </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>59839</t>
-        </is>
-      </c>
+      <c r="C375" t="inlineStr"/>
       <c r="D375" t="b">
         <v>0</v>
       </c>
@@ -9073,11 +7909,7 @@
           <t>71115-2024</t>
         </is>
       </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>75366</t>
-        </is>
-      </c>
+      <c r="C376" t="inlineStr"/>
       <c r="D376" t="b">
         <v>0</v>
       </c>
@@ -9096,11 +7928,7 @@
           <t>71198-2024</t>
         </is>
       </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>45422</t>
-        </is>
-      </c>
+      <c r="C377" t="inlineStr"/>
       <c r="D377" t="b">
         <v>0</v>
       </c>
@@ -9121,7 +7949,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>70231</t>
+          <t>82111</t>
         </is>
       </c>
       <c r="D378" t="b">
@@ -9142,11 +7970,7 @@
           <t>71546-2024</t>
         </is>
       </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>45505</t>
-        </is>
-      </c>
+      <c r="C379" t="inlineStr"/>
       <c r="D379" t="b">
         <v>0</v>
       </c>
@@ -9165,11 +7989,7 @@
           <t>71635-2024</t>
         </is>
       </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>13641</t>
-        </is>
-      </c>
+      <c r="C380" t="inlineStr"/>
       <c r="D380" t="b">
         <v>0</v>
       </c>
@@ -9188,11 +8008,7 @@
           <t>71809-2024</t>
         </is>
       </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>18687</t>
-        </is>
-      </c>
+      <c r="C381" t="inlineStr"/>
       <c r="D381" t="b">
         <v>0</v>
       </c>
@@ -9211,11 +8027,7 @@
           <t>71839-2024</t>
         </is>
       </c>
-      <c r="C382" t="inlineStr">
-        <is>
-          <t>64663</t>
-        </is>
-      </c>
+      <c r="C382" t="inlineStr"/>
       <c r="D382" t="b">
         <v>0</v>
       </c>
@@ -9234,11 +8046,7 @@
           <t>71934-2024</t>
         </is>
       </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>76464</t>
-        </is>
-      </c>
+      <c r="C383" t="inlineStr"/>
       <c r="D383" t="b">
         <v>0</v>
       </c>
@@ -9257,11 +8065,7 @@
           <t>72200-2024</t>
         </is>
       </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>44344</t>
-        </is>
-      </c>
+      <c r="C384" t="inlineStr"/>
       <c r="D384" t="b">
         <v>0</v>
       </c>
@@ -9280,11 +8084,7 @@
           <t>72496-2024</t>
         </is>
       </c>
-      <c r="C385" t="inlineStr">
-        <is>
-          <t>57841</t>
-        </is>
-      </c>
+      <c r="C385" t="inlineStr"/>
       <c r="D385" t="b">
         <v>0</v>
       </c>
@@ -9326,11 +8126,7 @@
           <t>72650-2024</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>70079</t>
-        </is>
-      </c>
+      <c r="C387" t="inlineStr"/>
       <c r="D387" t="b">
         <v>0</v>
       </c>
@@ -9349,11 +8145,7 @@
           <t>72967-2024</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>12314</t>
-        </is>
-      </c>
+      <c r="C388" t="inlineStr"/>
       <c r="D388" t="b">
         <v>0</v>
       </c>
@@ -9372,11 +8164,7 @@
           <t>73168-2024</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>33079</t>
-        </is>
-      </c>
+      <c r="C389" t="inlineStr"/>
       <c r="D389" t="b">
         <v>0</v>
       </c>
@@ -9395,11 +8183,7 @@
           <t>73257-2024</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>23315</t>
-        </is>
-      </c>
+      <c r="C390" t="inlineStr"/>
       <c r="D390" t="b">
         <v>0</v>
       </c>
@@ -9418,11 +8202,7 @@
           <t>73522-2024</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>58670</t>
-        </is>
-      </c>
+      <c r="C391" t="inlineStr"/>
       <c r="D391" t="b">
         <v>0</v>
       </c>
@@ -9441,11 +8221,7 @@
           <t>73723-2024</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>89756</t>
-        </is>
-      </c>
+      <c r="C392" t="inlineStr"/>
       <c r="D392" t="b">
         <v>0</v>
       </c>
@@ -9464,11 +8240,7 @@
           <t>74035-2024</t>
         </is>
       </c>
-      <c r="C393" t="inlineStr">
-        <is>
-          <t>97882</t>
-        </is>
-      </c>
+      <c r="C393" t="inlineStr"/>
       <c r="D393" t="b">
         <v>0</v>
       </c>
@@ -9489,7 +8261,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>59575</t>
+          <t>33400</t>
         </is>
       </c>
       <c r="D394" t="b">
@@ -9510,11 +8282,7 @@
           <t>74433-2024</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr">
-        <is>
-          <t>65127</t>
-        </is>
-      </c>
+      <c r="C395" t="inlineStr"/>
       <c r="D395" t="b">
         <v>0</v>
       </c>
@@ -9533,11 +8301,7 @@
           <t>74478-2024</t>
         </is>
       </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>85022</t>
-        </is>
-      </c>
+      <c r="C396" t="inlineStr"/>
       <c r="D396" t="b">
         <v>0</v>
       </c>
@@ -9556,11 +8320,7 @@
           <t>74553-2024</t>
         </is>
       </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>79609</t>
-        </is>
-      </c>
+      <c r="C397" t="inlineStr"/>
       <c r="D397" t="b">
         <v>0</v>
       </c>
@@ -9579,11 +8339,7 @@
           <t>74646-2024</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>38475</t>
-        </is>
-      </c>
+      <c r="C398" t="inlineStr"/>
       <c r="D398" t="b">
         <v>0</v>
       </c>
@@ -9602,11 +8358,7 @@
           <t>74866-2024</t>
         </is>
       </c>
-      <c r="C399" t="inlineStr">
-        <is>
-          <t>29211</t>
-        </is>
-      </c>
+      <c r="C399" t="inlineStr"/>
       <c r="D399" t="b">
         <v>0</v>
       </c>
@@ -9625,11 +8377,7 @@
           <t>75250-2024</t>
         </is>
       </c>
-      <c r="C400" t="inlineStr">
-        <is>
-          <t>52264</t>
-        </is>
-      </c>
+      <c r="C400" t="inlineStr"/>
       <c r="D400" t="b">
         <v>0</v>
       </c>
@@ -9648,11 +8396,7 @@
           <t>75434-2024</t>
         </is>
       </c>
-      <c r="C401" t="inlineStr">
-        <is>
-          <t>39581</t>
-        </is>
-      </c>
+      <c r="C401" t="inlineStr"/>
       <c r="D401" t="b">
         <v>0</v>
       </c>
@@ -9671,11 +8415,7 @@
           <t>75697-2024</t>
         </is>
       </c>
-      <c r="C402" t="inlineStr">
-        <is>
-          <t>93403</t>
-        </is>
-      </c>
+      <c r="C402" t="inlineStr"/>
       <c r="D402" t="b">
         <v>0</v>
       </c>
@@ -9694,11 +8434,7 @@
           <t>75807-2024</t>
         </is>
       </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>41565</t>
-        </is>
-      </c>
+      <c r="C403" t="inlineStr"/>
       <c r="D403" t="b">
         <v>0</v>
       </c>
@@ -9717,11 +8453,7 @@
           <t>76051-2024</t>
         </is>
       </c>
-      <c r="C404" t="inlineStr">
-        <is>
-          <t>71627</t>
-        </is>
-      </c>
+      <c r="C404" t="inlineStr"/>
       <c r="D404" t="b">
         <v>0</v>
       </c>
@@ -9740,11 +8472,7 @@
           <t>76086-2024</t>
         </is>
       </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>18688</t>
-        </is>
-      </c>
+      <c r="C405" t="inlineStr"/>
       <c r="D405" t="b">
         <v>0</v>
       </c>
@@ -9763,11 +8491,7 @@
           <t>76315-2024</t>
         </is>
       </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>11822</t>
-        </is>
-      </c>
+      <c r="C406" t="inlineStr"/>
       <c r="D406" t="b">
         <v>0</v>
       </c>
@@ -9786,11 +8510,7 @@
           <t>76612-2024</t>
         </is>
       </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>87441</t>
-        </is>
-      </c>
+      <c r="C407" t="inlineStr"/>
       <c r="D407" t="b">
         <v>0</v>
       </c>
@@ -9809,11 +8529,7 @@
           <t>77266-2024</t>
         </is>
       </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>57290</t>
-        </is>
-      </c>
+      <c r="C408" t="inlineStr"/>
       <c r="D408" t="b">
         <v>0</v>
       </c>
@@ -9832,11 +8548,7 @@
           <t>77712-2024</t>
         </is>
       </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>19374</t>
-        </is>
-      </c>
+      <c r="C409" t="inlineStr"/>
       <c r="D409" t="b">
         <v>0</v>
       </c>
@@ -9857,7 +8569,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>64617</t>
+          <t>50065</t>
         </is>
       </c>
       <c r="D410" t="b">
@@ -9878,11 +8590,7 @@
           <t>77723-2024</t>
         </is>
       </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>98256</t>
-        </is>
-      </c>
+      <c r="C411" t="inlineStr"/>
       <c r="D411" t="b">
         <v>0</v>
       </c>
@@ -9901,11 +8609,7 @@
           <t>77834-2024</t>
         </is>
       </c>
-      <c r="C412" t="inlineStr">
-        <is>
-          <t>38081</t>
-        </is>
-      </c>
+      <c r="C412" t="inlineStr"/>
       <c r="D412" t="b">
         <v>0</v>
       </c>
@@ -9926,7 +8630,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>50051</t>
+          <t>62733</t>
         </is>
       </c>
       <c r="D413" t="b">
@@ -9947,11 +8651,7 @@
           <t>78309-2024</t>
         </is>
       </c>
-      <c r="C414" t="inlineStr">
-        <is>
-          <t>86648</t>
-        </is>
-      </c>
+      <c r="C414" t="inlineStr"/>
       <c r="D414" t="b">
         <v>0</v>
       </c>
@@ -9970,11 +8670,7 @@
           <t>78621-2024</t>
         </is>
       </c>
-      <c r="C415" t="inlineStr">
-        <is>
-          <t>38690</t>
-        </is>
-      </c>
+      <c r="C415" t="inlineStr"/>
       <c r="D415" t="b">
         <v>0</v>
       </c>
@@ -9995,7 +8691,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>57911</t>
+          <t>99970</t>
         </is>
       </c>
       <c r="D416" t="b">
@@ -10018,7 +8714,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>41632</t>
+          <t>74885</t>
         </is>
       </c>
       <c r="D417" t="b">
@@ -10039,11 +8735,7 @@
           <t>79604-2024</t>
         </is>
       </c>
-      <c r="C418" t="inlineStr">
-        <is>
-          <t>40350</t>
-        </is>
-      </c>
+      <c r="C418" t="inlineStr"/>
       <c r="D418" t="b">
         <v>0</v>
       </c>
@@ -10062,11 +8754,7 @@
           <t>79676-2024</t>
         </is>
       </c>
-      <c r="C419" t="inlineStr">
-        <is>
-          <t>58208</t>
-        </is>
-      </c>
+      <c r="C419" t="inlineStr"/>
       <c r="D419" t="b">
         <v>0</v>
       </c>
@@ -10085,11 +8773,7 @@
           <t>79777-2024</t>
         </is>
       </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>38392</t>
-        </is>
-      </c>
+      <c r="C420" t="inlineStr"/>
       <c r="D420" t="b">
         <v>0</v>
       </c>
@@ -10108,11 +8792,7 @@
           <t>80241-2024</t>
         </is>
       </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>88466</t>
-        </is>
-      </c>
+      <c r="C421" t="inlineStr"/>
       <c r="D421" t="b">
         <v>0</v>
       </c>
@@ -10131,11 +8811,7 @@
           <t>80551-2024</t>
         </is>
       </c>
-      <c r="C422" t="inlineStr">
-        <is>
-          <t>50769</t>
-        </is>
-      </c>
+      <c r="C422" t="inlineStr"/>
       <c r="D422" t="b">
         <v>0</v>
       </c>
@@ -10156,7 +8832,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>95477</t>
+          <t>53643</t>
         </is>
       </c>
       <c r="D423" t="b">
@@ -10177,11 +8853,7 @@
           <t>80976-2024</t>
         </is>
       </c>
-      <c r="C424" t="inlineStr">
-        <is>
-          <t>54500</t>
-        </is>
-      </c>
+      <c r="C424" t="inlineStr"/>
       <c r="D424" t="b">
         <v>0</v>
       </c>
@@ -10200,11 +8872,7 @@
           <t>81281-2024</t>
         </is>
       </c>
-      <c r="C425" t="inlineStr">
-        <is>
-          <t>68265</t>
-        </is>
-      </c>
+      <c r="C425" t="inlineStr"/>
       <c r="D425" t="b">
         <v>0</v>
       </c>
@@ -10223,11 +8891,7 @@
           <t>82064-2024</t>
         </is>
       </c>
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>66249</t>
-        </is>
-      </c>
+      <c r="C426" t="inlineStr"/>
       <c r="D426" t="b">
         <v>0</v>
       </c>
@@ -10246,11 +8910,7 @@
           <t>82377-2024</t>
         </is>
       </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>23289</t>
-        </is>
-      </c>
+      <c r="C427" t="inlineStr"/>
       <c r="D427" t="b">
         <v>0</v>
       </c>
@@ -10269,11 +8929,7 @@
           <t>82573-2024</t>
         </is>
       </c>
-      <c r="C428" t="inlineStr">
-        <is>
-          <t>83680</t>
-        </is>
-      </c>
+      <c r="C428" t="inlineStr"/>
       <c r="D428" t="b">
         <v>0</v>
       </c>
@@ -10292,11 +8948,7 @@
           <t>82699-2024</t>
         </is>
       </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>90035</t>
-        </is>
-      </c>
+      <c r="C429" t="inlineStr"/>
       <c r="D429" t="b">
         <v>0</v>
       </c>
@@ -10315,11 +8967,7 @@
           <t>82949-2024</t>
         </is>
       </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>48512</t>
-        </is>
-      </c>
+      <c r="C430" t="inlineStr"/>
       <c r="D430" t="b">
         <v>0</v>
       </c>
@@ -10338,11 +8986,7 @@
           <t>83076-2024</t>
         </is>
       </c>
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>62061</t>
-        </is>
-      </c>
+      <c r="C431" t="inlineStr"/>
       <c r="D431" t="b">
         <v>0</v>
       </c>
@@ -10363,7 +9007,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>44797</t>
+          <t>27212</t>
         </is>
       </c>
       <c r="D432" t="b">
@@ -10384,11 +9028,7 @@
           <t>83166-2024</t>
         </is>
       </c>
-      <c r="C433" t="inlineStr">
-        <is>
-          <t>79943</t>
-        </is>
-      </c>
+      <c r="C433" t="inlineStr"/>
       <c r="D433" t="b">
         <v>0</v>
       </c>
@@ -10409,7 +9049,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>57953</t>
+          <t>79669</t>
         </is>
       </c>
       <c r="D434" t="b">
@@ -10430,11 +9070,7 @@
           <t>83562-2024</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr">
-        <is>
-          <t>66509</t>
-        </is>
-      </c>
+      <c r="C435" t="inlineStr"/>
       <c r="D435" t="b">
         <v>0</v>
       </c>
@@ -10453,11 +9089,7 @@
           <t>83672-2024</t>
         </is>
       </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>15303</t>
-        </is>
-      </c>
+      <c r="C436" t="inlineStr"/>
       <c r="D436" t="b">
         <v>0</v>
       </c>
@@ -10478,7 +9110,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>20853</t>
+          <t>94502</t>
         </is>
       </c>
       <c r="D437" t="b">
@@ -10499,11 +9131,7 @@
           <t>83854-2024</t>
         </is>
       </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>93223</t>
-        </is>
-      </c>
+      <c r="C438" t="inlineStr"/>
       <c r="D438" t="b">
         <v>0</v>
       </c>
@@ -10522,11 +9150,7 @@
           <t>83862-2024</t>
         </is>
       </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>50450</t>
-        </is>
-      </c>
+      <c r="C439" t="inlineStr"/>
       <c r="D439" t="b">
         <v>0</v>
       </c>
@@ -10545,11 +9169,7 @@
           <t>84005-2024</t>
         </is>
       </c>
-      <c r="C440" t="inlineStr">
-        <is>
-          <t>24769</t>
-        </is>
-      </c>
+      <c r="C440" t="inlineStr"/>
       <c r="D440" t="b">
         <v>0</v>
       </c>
@@ -10568,11 +9188,7 @@
           <t>84086-2024</t>
         </is>
       </c>
-      <c r="C441" t="inlineStr">
-        <is>
-          <t>64341</t>
-        </is>
-      </c>
+      <c r="C441" t="inlineStr"/>
       <c r="D441" t="b">
         <v>0</v>
       </c>
@@ -10591,11 +9207,7 @@
           <t>84104-2024</t>
         </is>
       </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>33885</t>
-        </is>
-      </c>
+      <c r="C442" t="inlineStr"/>
       <c r="D442" t="b">
         <v>0</v>
       </c>
@@ -10614,11 +9226,7 @@
           <t>84212-2024</t>
         </is>
       </c>
-      <c r="C443" t="inlineStr">
-        <is>
-          <t>63378</t>
-        </is>
-      </c>
+      <c r="C443" t="inlineStr"/>
       <c r="D443" t="b">
         <v>0</v>
       </c>
@@ -10639,7 +9247,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>63670</t>
+          <t>75055</t>
         </is>
       </c>
       <c r="D444" t="b">
@@ -10660,11 +9268,7 @@
           <t>84421-2024</t>
         </is>
       </c>
-      <c r="C445" t="inlineStr">
-        <is>
-          <t>15036</t>
-        </is>
-      </c>
+      <c r="C445" t="inlineStr"/>
       <c r="D445" t="b">
         <v>0</v>
       </c>
@@ -10683,11 +9287,7 @@
           <t>84431-2024</t>
         </is>
       </c>
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>80926</t>
-        </is>
-      </c>
+      <c r="C446" t="inlineStr"/>
       <c r="D446" t="b">
         <v>0</v>
       </c>
@@ -10706,11 +9306,7 @@
           <t>84744-2024</t>
         </is>
       </c>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>68466</t>
-        </is>
-      </c>
+      <c r="C447" t="inlineStr"/>
       <c r="D447" t="b">
         <v>0</v>
       </c>
@@ -10729,11 +9325,7 @@
           <t>84814-2024</t>
         </is>
       </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>25368</t>
-        </is>
-      </c>
+      <c r="C448" t="inlineStr"/>
       <c r="D448" t="b">
         <v>0</v>
       </c>
@@ -10752,11 +9344,7 @@
           <t>84926-2024</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr">
-        <is>
-          <t>28276</t>
-        </is>
-      </c>
+      <c r="C449" t="inlineStr"/>
       <c r="D449" t="b">
         <v>0</v>
       </c>
@@ -10775,11 +9363,7 @@
           <t>85241-2024</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr">
-        <is>
-          <t>60479</t>
-        </is>
-      </c>
+      <c r="C450" t="inlineStr"/>
       <c r="D450" t="b">
         <v>0</v>
       </c>
@@ -10798,11 +9382,7 @@
           <t>85284-2024</t>
         </is>
       </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>90285</t>
-        </is>
-      </c>
+      <c r="C451" t="inlineStr"/>
       <c r="D451" t="b">
         <v>0</v>
       </c>
@@ -10821,11 +9401,7 @@
           <t>85770-2024</t>
         </is>
       </c>
-      <c r="C452" t="inlineStr">
-        <is>
-          <t>66817</t>
-        </is>
-      </c>
+      <c r="C452" t="inlineStr"/>
       <c r="D452" t="b">
         <v>0</v>
       </c>
@@ -10844,11 +9420,7 @@
           <t>85810-2024</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
-        <is>
-          <t>63518</t>
-        </is>
-      </c>
+      <c r="C453" t="inlineStr"/>
       <c r="D453" t="b">
         <v>0</v>
       </c>
@@ -10867,11 +9439,7 @@
           <t>86036-2024</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>22274</t>
-        </is>
-      </c>
+      <c r="C454" t="inlineStr"/>
       <c r="D454" t="b">
         <v>0</v>
       </c>
@@ -10890,11 +9458,7 @@
           <t>86387-2024</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>20678</t>
-        </is>
-      </c>
+      <c r="C455" t="inlineStr"/>
       <c r="D455" t="b">
         <v>0</v>
       </c>
@@ -10913,11 +9477,7 @@
           <t>86396-2024</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>32195</t>
-        </is>
-      </c>
+      <c r="C456" t="inlineStr"/>
       <c r="D456" t="b">
         <v>0</v>
       </c>
@@ -10938,7 +9498,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>35672</t>
+          <t>88769</t>
         </is>
       </c>
       <c r="D457" t="b">
@@ -10959,11 +9519,7 @@
           <t>86683-2024</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>12871</t>
-        </is>
-      </c>
+      <c r="C458" t="inlineStr"/>
       <c r="D458" t="b">
         <v>0</v>
       </c>
@@ -10982,11 +9538,7 @@
           <t>87081-2024</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>64855</t>
-        </is>
-      </c>
+      <c r="C459" t="inlineStr"/>
       <c r="D459" t="b">
         <v>0</v>
       </c>
@@ -11007,7 +9559,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>37219</t>
+          <t>25249</t>
         </is>
       </c>
       <c r="D460" t="b">
@@ -11028,11 +9580,7 @@
           <t>87172-2024</t>
         </is>
       </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>61639</t>
-        </is>
-      </c>
+      <c r="C461" t="inlineStr"/>
       <c r="D461" t="b">
         <v>0</v>
       </c>
@@ -11051,11 +9599,7 @@
           <t>87893-2024</t>
         </is>
       </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>74743</t>
-        </is>
-      </c>
+      <c r="C462" t="inlineStr"/>
       <c r="D462" t="b">
         <v>0</v>
       </c>
@@ -11074,11 +9618,7 @@
           <t>88010-2024</t>
         </is>
       </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>16189</t>
-        </is>
-      </c>
+      <c r="C463" t="inlineStr"/>
       <c r="D463" t="b">
         <v>0</v>
       </c>
@@ -11097,11 +9637,7 @@
           <t>88041-2024</t>
         </is>
       </c>
-      <c r="C464" t="inlineStr">
-        <is>
-          <t>38854</t>
-        </is>
-      </c>
+      <c r="C464" t="inlineStr"/>
       <c r="D464" t="b">
         <v>0</v>
       </c>
@@ -11120,11 +9656,7 @@
           <t>88118-2024</t>
         </is>
       </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>37941</t>
-        </is>
-      </c>
+      <c r="C465" t="inlineStr"/>
       <c r="D465" t="b">
         <v>0</v>
       </c>
@@ -11143,11 +9675,7 @@
           <t>88652-2024</t>
         </is>
       </c>
-      <c r="C466" t="inlineStr">
-        <is>
-          <t>56608</t>
-        </is>
-      </c>
+      <c r="C466" t="inlineStr"/>
       <c r="D466" t="b">
         <v>0</v>
       </c>
@@ -11166,11 +9694,7 @@
           <t>88714-2024</t>
         </is>
       </c>
-      <c r="C467" t="inlineStr">
-        <is>
-          <t>46228</t>
-        </is>
-      </c>
+      <c r="C467" t="inlineStr"/>
       <c r="D467" t="b">
         <v>0</v>
       </c>
@@ -11189,11 +9713,7 @@
           <t>88751-2024</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr">
-        <is>
-          <t>61795</t>
-        </is>
-      </c>
+      <c r="C468" t="inlineStr"/>
       <c r="D468" t="b">
         <v>0</v>
       </c>
@@ -11212,11 +9732,7 @@
           <t>88965-2024</t>
         </is>
       </c>
-      <c r="C469" t="inlineStr">
-        <is>
-          <t>30890</t>
-        </is>
-      </c>
+      <c r="C469" t="inlineStr"/>
       <c r="D469" t="b">
         <v>0</v>
       </c>
@@ -11235,11 +9751,7 @@
           <t>89567-2024</t>
         </is>
       </c>
-      <c r="C470" t="inlineStr">
-        <is>
-          <t>12760</t>
-        </is>
-      </c>
+      <c r="C470" t="inlineStr"/>
       <c r="D470" t="b">
         <v>0</v>
       </c>
@@ -11258,11 +9770,7 @@
           <t>89746-2024</t>
         </is>
       </c>
-      <c r="C471" t="inlineStr">
-        <is>
-          <t>56460</t>
-        </is>
-      </c>
+      <c r="C471" t="inlineStr"/>
       <c r="D471" t="b">
         <v>0</v>
       </c>
@@ -11281,11 +9789,7 @@
           <t>89783-2024</t>
         </is>
       </c>
-      <c r="C472" t="inlineStr">
-        <is>
-          <t>18383</t>
-        </is>
-      </c>
+      <c r="C472" t="inlineStr"/>
       <c r="D472" t="b">
         <v>0</v>
       </c>
@@ -11304,11 +9808,7 @@
           <t>90002-2024</t>
         </is>
       </c>
-      <c r="C473" t="inlineStr">
-        <is>
-          <t>19150</t>
-        </is>
-      </c>
+      <c r="C473" t="inlineStr"/>
       <c r="D473" t="b">
         <v>0</v>
       </c>
@@ -11327,11 +9827,7 @@
           <t>90185-2024</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr">
-        <is>
-          <t>10086</t>
-        </is>
-      </c>
+      <c r="C474" t="inlineStr"/>
       <c r="D474" t="b">
         <v>0</v>
       </c>
@@ -11350,11 +9846,7 @@
           <t>90581-2024</t>
         </is>
       </c>
-      <c r="C475" t="inlineStr">
-        <is>
-          <t>41076</t>
-        </is>
-      </c>
+      <c r="C475" t="inlineStr"/>
       <c r="D475" t="b">
         <v>0</v>
       </c>
@@ -11373,11 +9865,7 @@
           <t>90687-2024</t>
         </is>
       </c>
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>32013</t>
-        </is>
-      </c>
+      <c r="C476" t="inlineStr"/>
       <c r="D476" t="b">
         <v>0</v>
       </c>
@@ -11396,11 +9884,7 @@
           <t>90833-2024</t>
         </is>
       </c>
-      <c r="C477" t="inlineStr">
-        <is>
-          <t>66441</t>
-        </is>
-      </c>
+      <c r="C477" t="inlineStr"/>
       <c r="D477" t="b">
         <v>0</v>
       </c>
@@ -11419,11 +9903,7 @@
           <t>90851-2024</t>
         </is>
       </c>
-      <c r="C478" t="inlineStr">
-        <is>
-          <t>27537</t>
-        </is>
-      </c>
+      <c r="C478" t="inlineStr"/>
       <c r="D478" t="b">
         <v>0</v>
       </c>
@@ -11444,7 +9924,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>42549</t>
+          <t>74862</t>
         </is>
       </c>
       <c r="D479" t="b">
@@ -11465,11 +9945,7 @@
           <t>91353-2024</t>
         </is>
       </c>
-      <c r="C480" t="inlineStr">
-        <is>
-          <t>78284</t>
-        </is>
-      </c>
+      <c r="C480" t="inlineStr"/>
       <c r="D480" t="b">
         <v>0</v>
       </c>
@@ -11488,11 +9964,7 @@
           <t>91436-2024</t>
         </is>
       </c>
-      <c r="C481" t="inlineStr">
-        <is>
-          <t>32153</t>
-        </is>
-      </c>
+      <c r="C481" t="inlineStr"/>
       <c r="D481" t="b">
         <v>0</v>
       </c>
@@ -11511,11 +9983,7 @@
           <t>91998-2024</t>
         </is>
       </c>
-      <c r="C482" t="inlineStr">
-        <is>
-          <t>11336</t>
-        </is>
-      </c>
+      <c r="C482" t="inlineStr"/>
       <c r="D482" t="b">
         <v>0</v>
       </c>
@@ -11534,11 +10002,7 @@
           <t>91999-2024</t>
         </is>
       </c>
-      <c r="C483" t="inlineStr">
-        <is>
-          <t>82058</t>
-        </is>
-      </c>
+      <c r="C483" t="inlineStr"/>
       <c r="D483" t="b">
         <v>0</v>
       </c>
@@ -11557,11 +10021,7 @@
           <t>92064-2024</t>
         </is>
       </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>80352</t>
-        </is>
-      </c>
+      <c r="C484" t="inlineStr"/>
       <c r="D484" t="b">
         <v>0</v>
       </c>
@@ -11580,11 +10040,7 @@
           <t>92261-2024</t>
         </is>
       </c>
-      <c r="C485" t="inlineStr">
-        <is>
-          <t>65588</t>
-        </is>
-      </c>
+      <c r="C485" t="inlineStr"/>
       <c r="D485" t="b">
         <v>0</v>
       </c>
@@ -11603,11 +10059,7 @@
           <t>92332-2024</t>
         </is>
       </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>26824</t>
-        </is>
-      </c>
+      <c r="C486" t="inlineStr"/>
       <c r="D486" t="b">
         <v>0</v>
       </c>
@@ -11626,11 +10078,7 @@
           <t>92459-2024</t>
         </is>
       </c>
-      <c r="C487" t="inlineStr">
-        <is>
-          <t>44846</t>
-        </is>
-      </c>
+      <c r="C487" t="inlineStr"/>
       <c r="D487" t="b">
         <v>0</v>
       </c>
@@ -11649,11 +10097,7 @@
           <t>92482-2024</t>
         </is>
       </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>30746</t>
-        </is>
-      </c>
+      <c r="C488" t="inlineStr"/>
       <c r="D488" t="b">
         <v>0</v>
       </c>
@@ -11674,7 +10118,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>57160</t>
+          <t>30099</t>
         </is>
       </c>
       <c r="D489" t="b">
@@ -11695,11 +10139,7 @@
           <t>93049-2024</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
-        <is>
-          <t>60006</t>
-        </is>
-      </c>
+      <c r="C490" t="inlineStr"/>
       <c r="D490" t="b">
         <v>0</v>
       </c>
@@ -11718,11 +10158,7 @@
           <t>93343-2024</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>50273</t>
-        </is>
-      </c>
+      <c r="C491" t="inlineStr"/>
       <c r="D491" t="b">
         <v>0</v>
       </c>
@@ -11741,11 +10177,7 @@
           <t>93420-2024</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>22508</t>
-        </is>
-      </c>
+      <c r="C492" t="inlineStr"/>
       <c r="D492" t="b">
         <v>0</v>
       </c>
@@ -11764,11 +10196,7 @@
           <t>93502-2024</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>60067</t>
-        </is>
-      </c>
+      <c r="C493" t="inlineStr"/>
       <c r="D493" t="b">
         <v>0</v>
       </c>
@@ -11787,11 +10215,7 @@
           <t>93940-2024</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
-        <is>
-          <t>39095</t>
-        </is>
-      </c>
+      <c r="C494" t="inlineStr"/>
       <c r="D494" t="b">
         <v>0</v>
       </c>
@@ -11810,11 +10234,7 @@
           <t>94111-2024</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
-        <is>
-          <t>36539</t>
-        </is>
-      </c>
+      <c r="C495" t="inlineStr"/>
       <c r="D495" t="b">
         <v>0</v>
       </c>
@@ -11833,11 +10253,7 @@
           <t>94118-2024</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
-        <is>
-          <t>52298</t>
-        </is>
-      </c>
+      <c r="C496" t="inlineStr"/>
       <c r="D496" t="b">
         <v>0</v>
       </c>
@@ -11856,11 +10272,7 @@
           <t>94833-2024</t>
         </is>
       </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>56087</t>
-        </is>
-      </c>
+      <c r="C497" t="inlineStr"/>
       <c r="D497" t="b">
         <v>0</v>
       </c>
@@ -11879,11 +10291,7 @@
           <t>95035-2024</t>
         </is>
       </c>
-      <c r="C498" t="inlineStr">
-        <is>
-          <t>69412</t>
-        </is>
-      </c>
+      <c r="C498" t="inlineStr"/>
       <c r="D498" t="b">
         <v>0</v>
       </c>
@@ -11902,11 +10310,7 @@
           <t>95056-2024</t>
         </is>
       </c>
-      <c r="C499" t="inlineStr">
-        <is>
-          <t>49649</t>
-        </is>
-      </c>
+      <c r="C499" t="inlineStr"/>
       <c r="D499" t="b">
         <v>0</v>
       </c>
@@ -11925,11 +10329,7 @@
           <t>95285-2024</t>
         </is>
       </c>
-      <c r="C500" t="inlineStr">
-        <is>
-          <t>18065</t>
-        </is>
-      </c>
+      <c r="C500" t="inlineStr"/>
       <c r="D500" t="b">
         <v>0</v>
       </c>
@@ -11948,11 +10348,7 @@
           <t>95529-2024</t>
         </is>
       </c>
-      <c r="C501" t="inlineStr">
-        <is>
-          <t>81170</t>
-        </is>
-      </c>
+      <c r="C501" t="inlineStr"/>
       <c r="D501" t="b">
         <v>0</v>
       </c>
@@ -11973,7 +10369,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>64253</t>
+          <t>18596</t>
         </is>
       </c>
       <c r="D502" t="b">
@@ -11994,11 +10390,7 @@
           <t>96153-2024</t>
         </is>
       </c>
-      <c r="C503" t="inlineStr">
-        <is>
-          <t>86567</t>
-        </is>
-      </c>
+      <c r="C503" t="inlineStr"/>
       <c r="D503" t="b">
         <v>0</v>
       </c>
@@ -12017,11 +10409,7 @@
           <t>96249-2024</t>
         </is>
       </c>
-      <c r="C504" t="inlineStr">
-        <is>
-          <t>72807</t>
-        </is>
-      </c>
+      <c r="C504" t="inlineStr"/>
       <c r="D504" t="b">
         <v>0</v>
       </c>
@@ -12040,11 +10428,7 @@
           <t>96274-2024</t>
         </is>
       </c>
-      <c r="C505" t="inlineStr">
-        <is>
-          <t>28894</t>
-        </is>
-      </c>
+      <c r="C505" t="inlineStr"/>
       <c r="D505" t="b">
         <v>0</v>
       </c>
@@ -12063,11 +10447,7 @@
           <t>96287-2024</t>
         </is>
       </c>
-      <c r="C506" t="inlineStr">
-        <is>
-          <t>62052</t>
-        </is>
-      </c>
+      <c r="C506" t="inlineStr"/>
       <c r="D506" t="b">
         <v>0</v>
       </c>
@@ -12086,11 +10466,7 @@
           <t>96922-2024</t>
         </is>
       </c>
-      <c r="C507" t="inlineStr">
-        <is>
-          <t>94888</t>
-        </is>
-      </c>
+      <c r="C507" t="inlineStr"/>
       <c r="D507" t="b">
         <v>0</v>
       </c>
@@ -12109,11 +10485,7 @@
           <t>96963-2024</t>
         </is>
       </c>
-      <c r="C508" t="inlineStr">
-        <is>
-          <t>91654</t>
-        </is>
-      </c>
+      <c r="C508" t="inlineStr"/>
       <c r="D508" t="b">
         <v>0</v>
       </c>
@@ -12134,7 +10506,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>63325</t>
+          <t>85968</t>
         </is>
       </c>
       <c r="D509" t="b">
@@ -12155,11 +10527,7 @@
           <t>97249-2024</t>
         </is>
       </c>
-      <c r="C510" t="inlineStr">
-        <is>
-          <t>73094</t>
-        </is>
-      </c>
+      <c r="C510" t="inlineStr"/>
       <c r="D510" t="b">
         <v>0</v>
       </c>
@@ -12178,11 +10546,7 @@
           <t>97304-2024</t>
         </is>
       </c>
-      <c r="C511" t="inlineStr">
-        <is>
-          <t>14091</t>
-        </is>
-      </c>
+      <c r="C511" t="inlineStr"/>
       <c r="D511" t="b">
         <v>0</v>
       </c>
@@ -12201,11 +10565,7 @@
           <t>97331-2024</t>
         </is>
       </c>
-      <c r="C512" t="inlineStr">
-        <is>
-          <t>28591</t>
-        </is>
-      </c>
+      <c r="C512" t="inlineStr"/>
       <c r="D512" t="b">
         <v>0</v>
       </c>
@@ -12224,11 +10584,7 @@
           <t>97780-2024</t>
         </is>
       </c>
-      <c r="C513" t="inlineStr">
-        <is>
-          <t>15478</t>
-        </is>
-      </c>
+      <c r="C513" t="inlineStr"/>
       <c r="D513" t="b">
         <v>0</v>
       </c>
@@ -12249,7 +10605,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>55426</t>
+          <t>71863</t>
         </is>
       </c>
       <c r="D514" t="b">
@@ -12270,11 +10626,7 @@
           <t>97977-2024</t>
         </is>
       </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>96657</t>
-        </is>
-      </c>
+      <c r="C515" t="inlineStr"/>
       <c r="D515" t="b">
         <v>0</v>
       </c>
@@ -12293,11 +10645,7 @@
           <t>98180-2024</t>
         </is>
       </c>
-      <c r="C516" t="inlineStr">
-        <is>
-          <t>50779</t>
-        </is>
-      </c>
+      <c r="C516" t="inlineStr"/>
       <c r="D516" t="b">
         <v>0</v>
       </c>
@@ -12316,11 +10664,7 @@
           <t>98362-2024</t>
         </is>
       </c>
-      <c r="C517" t="inlineStr">
-        <is>
-          <t>99679</t>
-        </is>
-      </c>
+      <c r="C517" t="inlineStr"/>
       <c r="D517" t="b">
         <v>0</v>
       </c>
@@ -12339,11 +10683,7 @@
           <t>98623-2024</t>
         </is>
       </c>
-      <c r="C518" t="inlineStr">
-        <is>
-          <t>13926</t>
-        </is>
-      </c>
+      <c r="C518" t="inlineStr"/>
       <c r="D518" t="b">
         <v>0</v>
       </c>
@@ -12362,11 +10702,7 @@
           <t>98988-2024</t>
         </is>
       </c>
-      <c r="C519" t="inlineStr">
-        <is>
-          <t>80407</t>
-        </is>
-      </c>
+      <c r="C519" t="inlineStr"/>
       <c r="D519" t="b">
         <v>0</v>
       </c>
@@ -12385,11 +10721,7 @@
           <t>99116-2024</t>
         </is>
       </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>90747</t>
-        </is>
-      </c>
+      <c r="C520" t="inlineStr"/>
       <c r="D520" t="b">
         <v>0</v>
       </c>
@@ -12408,11 +10740,7 @@
           <t>99608-2024</t>
         </is>
       </c>
-      <c r="C521" t="inlineStr">
-        <is>
-          <t>41848</t>
-        </is>
-      </c>
+      <c r="C521" t="inlineStr"/>
       <c r="D521" t="b">
         <v>0</v>
       </c>
@@ -12431,11 +10759,7 @@
           <t>99772-2024</t>
         </is>
       </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>13911</t>
-        </is>
-      </c>
+      <c r="C522" t="inlineStr"/>
       <c r="D522" t="b">
         <v>0</v>
       </c>
@@ -12454,11 +10778,7 @@
           <t>99776-2024</t>
         </is>
       </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>74845</t>
-        </is>
-      </c>
+      <c r="C523" t="inlineStr"/>
       <c r="D523" t="b">
         <v>0</v>
       </c>
@@ -12477,11 +10797,7 @@
           <t>99821-2024</t>
         </is>
       </c>
-      <c r="C524" t="inlineStr">
-        <is>
-          <t>67403</t>
-        </is>
-      </c>
+      <c r="C524" t="inlineStr"/>
       <c r="D524" t="b">
         <v>0</v>
       </c>
@@ -12502,7 +10818,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>54632</t>
+          <t>21731</t>
         </is>
       </c>
       <c r="D525" t="b">
@@ -12523,11 +10839,7 @@
           <t>99919-2024</t>
         </is>
       </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>14157</t>
-        </is>
-      </c>
+      <c r="C526" t="inlineStr"/>
       <c r="D526" t="b">
         <v>0</v>
       </c>
@@ -12546,11 +10858,7 @@
           <t>99923-2024</t>
         </is>
       </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>59772</t>
-        </is>
-      </c>
+      <c r="C527" t="inlineStr"/>
       <c r="D527" t="b">
         <v>0</v>
       </c>
@@ -12571,7 +10879,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>19495</t>
+          <t>23497</t>
         </is>
       </c>
       <c r="D528" t="b">
